--- a/BackTest/2019-10-10 BackTest TRUE.xlsx
+++ b/BackTest/2019-10-10 BackTest TRUE.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>58</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>17.85714285714286</v>
+      </c>
       <c r="L12" t="n">
         <v>316.5</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>67</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1.538461538461539</v>
+      </c>
       <c r="L13" t="n">
         <v>316.6</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>70</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>3.03030303030303</v>
+      </c>
       <c r="L14" t="n">
         <v>317</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>71</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-23.07692307692308</v>
+      </c>
       <c r="L15" t="n">
         <v>317.3</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>74</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-4.761904761904762</v>
+      </c>
       <c r="L16" t="n">
         <v>315.8</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>74</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>2.564102564102564</v>
+      </c>
       <c r="L17" t="n">
         <v>315.6</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>80</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>36.84210526315789</v>
+      </c>
       <c r="L18" t="n">
         <v>316.3</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>84</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>15.78947368421053</v>
+      </c>
       <c r="L19" t="n">
         <v>317.3</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>85</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-21.42857142857143</v>
+      </c>
       <c r="L20" t="n">
         <v>317.8</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>95</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-45.94594594594595</v>
+      </c>
       <c r="L21" t="n">
         <v>316.2</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>96</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-31.03448275862069</v>
+      </c>
       <c r="L22" t="n">
         <v>314.4</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>110</v>
       </c>
       <c r="K23" t="n">
-        <v>5.555555555555555</v>
+        <v>5</v>
       </c>
       <c r="L23" t="n">
         <v>314.9</v>
@@ -1466,7 +1488,7 @@
         <v>116</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L24" t="n">
         <v>314.5</v>
@@ -1515,7 +1537,7 @@
         <v>119</v>
       </c>
       <c r="K25" t="n">
-        <v>-4.347826086956522</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L25" t="n">
         <v>313.7</v>
@@ -1564,7 +1586,7 @@
         <v>123</v>
       </c>
       <c r="K26" t="n">
-        <v>-15.38461538461539</v>
+        <v>-2.040816326530612</v>
       </c>
       <c r="L26" t="n">
         <v>313.6</v>
@@ -1613,7 +1635,7 @@
         <v>126</v>
       </c>
       <c r="K27" t="n">
-        <v>-6.382978723404255</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L27" t="n">
         <v>313.2</v>
@@ -1662,7 +1684,7 @@
         <v>133</v>
       </c>
       <c r="K28" t="n">
-        <v>4.081632653061225</v>
+        <v>2.040816326530612</v>
       </c>
       <c r="L28" t="n">
         <v>312.9</v>
@@ -1711,7 +1733,7 @@
         <v>134</v>
       </c>
       <c r="K29" t="n">
-        <v>13.04347826086956</v>
+        <v>6.122448979591836</v>
       </c>
       <c r="L29" t="n">
         <v>313.1</v>
@@ -1760,7 +1782,7 @@
         <v>135</v>
       </c>
       <c r="K30" t="n">
-        <v>10.1123595505618</v>
+        <v>35</v>
       </c>
       <c r="L30" t="n">
         <v>313.5</v>
@@ -1809,7 +1831,7 @@
         <v>135</v>
       </c>
       <c r="K31" t="n">
-        <v>-2.564102564102564</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L31" t="n">
         <v>314.9</v>
@@ -1860,7 +1882,7 @@
         <v>136</v>
       </c>
       <c r="K32" t="n">
-        <v>-5.128205128205128</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>316.3</v>
@@ -1911,7 +1933,7 @@
         <v>141</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L33" t="n">
         <v>315.8</v>
@@ -1962,7 +1984,7 @@
         <v>141</v>
       </c>
       <c r="K34" t="n">
-        <v>-4.225352112676056</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L34" t="n">
         <v>315.9</v>
@@ -2013,7 +2035,7 @@
         <v>142</v>
       </c>
       <c r="K35" t="n">
-        <v>-4.225352112676056</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L35" t="n">
         <v>316.4</v>
@@ -2064,7 +2086,7 @@
         <v>142</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L36" t="n">
         <v>316.5</v>
@@ -2115,7 +2137,7 @@
         <v>143</v>
       </c>
       <c r="K37" t="n">
-        <v>-1.449275362318841</v>
+        <v>-40</v>
       </c>
       <c r="L37" t="n">
         <v>316.8</v>
@@ -2166,7 +2188,7 @@
         <v>144</v>
       </c>
       <c r="K38" t="n">
-        <v>-9.375</v>
+        <v>-40</v>
       </c>
       <c r="L38" t="n">
         <v>316.5</v>
@@ -2217,7 +2239,7 @@
         <v>145</v>
       </c>
       <c r="K39" t="n">
-        <v>-4.918032786885246</v>
+        <v>-60</v>
       </c>
       <c r="L39" t="n">
         <v>316</v>
@@ -2268,7 +2290,7 @@
         <v>146</v>
       </c>
       <c r="K40" t="n">
-        <v>-4.918032786885246</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L40" t="n">
         <v>315.3</v>
@@ -2319,7 +2341,7 @@
         <v>149</v>
       </c>
       <c r="K41" t="n">
-        <v>7.407407407407407</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L41" t="n">
         <v>314.3</v>
@@ -2370,7 +2392,7 @@
         <v>153</v>
       </c>
       <c r="K42" t="n">
-        <v>15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>313.8</v>
@@ -2421,7 +2443,7 @@
         <v>157</v>
       </c>
       <c r="K43" t="n">
-        <v>-19.14893617021277</v>
+        <v>-25</v>
       </c>
       <c r="L43" t="n">
         <v>313.4</v>
@@ -2472,7 +2494,7 @@
         <v>158</v>
       </c>
       <c r="K44" t="n">
-        <v>-4.761904761904762</v>
+        <v>-25</v>
       </c>
       <c r="L44" t="n">
         <v>313.1</v>
@@ -2523,7 +2545,7 @@
         <v>159</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L45" t="n">
         <v>312.6</v>
@@ -2574,7 +2596,7 @@
         <v>159</v>
       </c>
       <c r="K46" t="n">
-        <v>-11.11111111111111</v>
+        <v>-25</v>
       </c>
       <c r="L46" t="n">
         <v>312.1</v>
@@ -2625,7 +2647,7 @@
         <v>163</v>
       </c>
       <c r="K47" t="n">
-        <v>8.108108108108109</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L47" t="n">
         <v>312.1</v>
@@ -2676,7 +2698,7 @@
         <v>167</v>
       </c>
       <c r="K48" t="n">
-        <v>-23.52941176470588</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L48" t="n">
         <v>311.6</v>
@@ -2727,7 +2749,7 @@
         <v>168</v>
       </c>
       <c r="K49" t="n">
-        <v>-29.41176470588236</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L49" t="n">
         <v>311.1</v>
@@ -2778,7 +2800,7 @@
         <v>173</v>
       </c>
       <c r="K50" t="n">
-        <v>-15.78947368421053</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L50" t="n">
         <v>311.2</v>
@@ -2829,7 +2851,7 @@
         <v>173</v>
       </c>
       <c r="K51" t="n">
-        <v>-15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>311.6</v>
@@ -2880,7 +2902,7 @@
         <v>176</v>
       </c>
       <c r="K52" t="n">
-        <v>-20</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L52" t="n">
         <v>311.3</v>
@@ -2931,7 +2953,7 @@
         <v>182</v>
       </c>
       <c r="K53" t="n">
-        <v>-21.95121951219512</v>
+        <v>-25</v>
       </c>
       <c r="L53" t="n">
         <v>310.8</v>
@@ -2982,7 +3004,7 @@
         <v>182</v>
       </c>
       <c r="K54" t="n">
-        <v>-21.95121951219512</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L54" t="n">
         <v>310.2</v>
@@ -3033,7 +3055,7 @@
         <v>186</v>
       </c>
       <c r="K55" t="n">
-        <v>-13.63636363636363</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L55" t="n">
         <v>310.1</v>
@@ -3084,7 +3106,7 @@
         <v>189</v>
       </c>
       <c r="K56" t="n">
-        <v>-6.382978723404255</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L56" t="n">
         <v>310.3</v>
@@ -3135,7 +3157,7 @@
         <v>191</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L57" t="n">
         <v>310.3</v>
@@ -3186,7 +3208,7 @@
         <v>193</v>
       </c>
       <c r="K58" t="n">
-        <v>2.040816326530612</v>
+        <v>28</v>
       </c>
       <c r="L58" t="n">
         <v>310.9</v>
@@ -3237,7 +3259,7 @@
         <v>194</v>
       </c>
       <c r="K59" t="n">
-        <v>2.040816326530612</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L59" t="n">
         <v>311.5</v>
@@ -3288,7 +3310,7 @@
         <v>194</v>
       </c>
       <c r="K60" t="n">
-        <v>4.166666666666666</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L60" t="n">
         <v>311.6</v>
@@ -3339,7 +3361,7 @@
         <v>194</v>
       </c>
       <c r="K61" t="n">
-        <v>11.11111111111111</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L61" t="n">
         <v>311.7</v>
@@ -3390,7 +3412,7 @@
         <v>195</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L62" t="n">
         <v>312</v>
@@ -3441,7 +3463,7 @@
         <v>196</v>
       </c>
       <c r="K63" t="n">
-        <v>7.692307692307693</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L63" t="n">
         <v>312.8</v>
@@ -3492,7 +3514,7 @@
         <v>199</v>
       </c>
       <c r="K64" t="n">
-        <v>12.19512195121951</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L64" t="n">
         <v>313.9</v>
@@ -3543,7 +3565,7 @@
         <v>200</v>
       </c>
       <c r="K65" t="n">
-        <v>17.07317073170732</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L65" t="n">
         <v>314.7</v>
@@ -3594,7 +3616,7 @@
         <v>200</v>
       </c>
       <c r="K66" t="n">
-        <v>17.07317073170732</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L66" t="n">
         <v>315.2</v>
@@ -3645,7 +3667,7 @@
         <v>201</v>
       </c>
       <c r="K67" t="n">
-        <v>10.52631578947368</v>
+        <v>25</v>
       </c>
       <c r="L67" t="n">
         <v>315.6</v>
@@ -3696,7 +3718,7 @@
         <v>201</v>
       </c>
       <c r="K68" t="n">
-        <v>23.52941176470588</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L68" t="n">
         <v>315.8</v>
@@ -3747,7 +3769,7 @@
         <v>201</v>
       </c>
       <c r="K69" t="n">
-        <v>27.27272727272727</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L69" t="n">
         <v>316.1</v>
@@ -3798,7 +3820,7 @@
         <v>202</v>
       </c>
       <c r="K70" t="n">
-        <v>10.3448275862069</v>
+        <v>25</v>
       </c>
       <c r="L70" t="n">
         <v>316.3</v>
@@ -3849,7 +3871,7 @@
         <v>204</v>
       </c>
       <c r="K71" t="n">
-        <v>3.225806451612903</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L71" t="n">
         <v>316.3</v>
@@ -3900,7 +3922,7 @@
         <v>207</v>
       </c>
       <c r="K72" t="n">
-        <v>22.58064516129032</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L72" t="n">
         <v>316.7</v>
@@ -3951,7 +3973,7 @@
         <v>207</v>
       </c>
       <c r="K73" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="L73" t="n">
         <v>317.2</v>
@@ -4002,7 +4024,7 @@
         <v>209</v>
       </c>
       <c r="K74" t="n">
-        <v>55.55555555555556</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L74" t="n">
         <v>317.6</v>
@@ -4053,7 +4075,7 @@
         <v>214</v>
       </c>
       <c r="K75" t="n">
-        <v>21.42857142857143</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L75" t="n">
         <v>317.4</v>
@@ -4104,7 +4126,7 @@
         <v>216</v>
       </c>
       <c r="K76" t="n">
-        <v>3.703703703703703</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L76" t="n">
         <v>317</v>
@@ -4155,7 +4177,7 @@
         <v>217</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L77" t="n">
         <v>316.6</v>
@@ -4206,7 +4228,7 @@
         <v>217</v>
       </c>
       <c r="K78" t="n">
-        <v>-8.333333333333332</v>
+        <v>-25</v>
       </c>
       <c r="L78" t="n">
         <v>316.2</v>
@@ -4257,7 +4279,7 @@
         <v>222</v>
       </c>
       <c r="K79" t="n">
-        <v>-21.42857142857143</v>
+        <v>-40</v>
       </c>
       <c r="L79" t="n">
         <v>315.3</v>
@@ -4308,7 +4330,7 @@
         <v>223</v>
       </c>
       <c r="K80" t="n">
-        <v>-17.24137931034483</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L80" t="n">
         <v>314.6</v>
@@ -4359,7 +4381,7 @@
         <v>223</v>
       </c>
       <c r="K81" t="n">
-        <v>-17.24137931034483</v>
+        <v>-50</v>
       </c>
       <c r="L81" t="n">
         <v>314.1</v>
@@ -4410,7 +4432,7 @@
         <v>224</v>
       </c>
       <c r="K82" t="n">
-        <v>-17.24137931034483</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L82" t="n">
         <v>313.2</v>
@@ -4461,7 +4483,7 @@
         <v>225</v>
       </c>
       <c r="K83" t="n">
-        <v>-10.3448275862069</v>
+        <v>-62.5</v>
       </c>
       <c r="L83" t="n">
         <v>312.4</v>
@@ -4512,7 +4534,7 @@
         <v>225</v>
       </c>
       <c r="K84" t="n">
-        <v>-23.07692307692308</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L84" t="n">
         <v>311.4</v>
@@ -4563,7 +4585,7 @@
         <v>225</v>
       </c>
       <c r="K85" t="n">
-        <v>-28</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L85" t="n">
         <v>310.9</v>
@@ -4614,7 +4636,7 @@
         <v>229</v>
       </c>
       <c r="K86" t="n">
-        <v>-10.3448275862069</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
         <v>311</v>
@@ -4665,7 +4687,7 @@
         <v>230</v>
       </c>
       <c r="K87" t="n">
-        <v>-17.24137931034483</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L87" t="n">
         <v>310.9</v>
@@ -4716,7 +4738,7 @@
         <v>233</v>
       </c>
       <c r="K88" t="n">
-        <v>-25</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L88" t="n">
         <v>310.5</v>
@@ -4767,7 +4789,7 @@
         <v>233</v>
       </c>
       <c r="K89" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
         <v>310.6</v>
@@ -4818,7 +4840,7 @@
         <v>235</v>
       </c>
       <c r="K90" t="n">
-        <v>-27.27272727272727</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L90" t="n">
         <v>310.4</v>
@@ -4869,7 +4891,7 @@
         <v>235</v>
       </c>
       <c r="K91" t="n">
-        <v>-22.58064516129032</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L91" t="n">
         <v>310.2</v>
@@ -4920,7 +4942,7 @@
         <v>237</v>
       </c>
       <c r="K92" t="n">
-        <v>-26.66666666666667</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
         <v>310.3</v>
@@ -4971,7 +4993,7 @@
         <v>238</v>
       </c>
       <c r="K93" t="n">
-        <v>-29.03225806451613</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L93" t="n">
         <v>310.2</v>
@@ -5022,7 +5044,7 @@
         <v>239</v>
       </c>
       <c r="K94" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
         <v>310.2</v>
@@ -5073,7 +5095,7 @@
         <v>239</v>
       </c>
       <c r="K95" t="n">
-        <v>-20</v>
+        <v>-40</v>
       </c>
       <c r="L95" t="n">
         <v>310.2</v>
@@ -5124,7 +5146,7 @@
         <v>239</v>
       </c>
       <c r="K96" t="n">
-        <v>-13.04347826086956</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L96" t="n">
         <v>309.8</v>
@@ -5175,7 +5197,7 @@
         <v>239</v>
       </c>
       <c r="K97" t="n">
-        <v>-18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
         <v>309.5</v>
@@ -5226,7 +5248,7 @@
         <v>239</v>
       </c>
       <c r="K98" t="n">
-        <v>-18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
         <v>309.5</v>
@@ -5277,7 +5299,7 @@
         <v>241</v>
       </c>
       <c r="K99" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>309.3</v>
@@ -5328,7 +5350,7 @@
         <v>243</v>
       </c>
       <c r="K100" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L100" t="n">
         <v>309.1</v>
@@ -5379,7 +5401,7 @@
         <v>243</v>
       </c>
       <c r="K101" t="n">
-        <v>-20</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L101" t="n">
         <v>308.9</v>
@@ -5430,7 +5452,7 @@
         <v>243</v>
       </c>
       <c r="K102" t="n">
-        <v>-15.78947368421053</v>
+        <v>-60</v>
       </c>
       <c r="L102" t="n">
         <v>308.5</v>
@@ -5481,7 +5503,7 @@
         <v>243</v>
       </c>
       <c r="K103" t="n">
-        <v>-22.22222222222222</v>
+        <v>-100</v>
       </c>
       <c r="L103" t="n">
         <v>308.2</v>
@@ -5532,7 +5554,7 @@
         <v>246</v>
       </c>
       <c r="K104" t="n">
-        <v>-4.761904761904762</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L104" t="n">
         <v>308.1</v>
@@ -5583,7 +5605,7 @@
         <v>250</v>
       </c>
       <c r="K105" t="n">
-        <v>-20</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L105" t="n">
         <v>307.6</v>
@@ -5634,7 +5656,7 @@
         <v>250</v>
       </c>
       <c r="K106" t="n">
-        <v>-42.85714285714285</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L106" t="n">
         <v>307.1</v>
@@ -5685,7 +5707,7 @@
         <v>252</v>
       </c>
       <c r="K107" t="n">
-        <v>-27.27272727272727</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L107" t="n">
         <v>306.8</v>
@@ -5736,7 +5758,7 @@
         <v>253</v>
       </c>
       <c r="K108" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>306.6</v>
@@ -5787,7 +5809,7 @@
         <v>253</v>
       </c>
       <c r="K109" t="n">
-        <v>-10</v>
+        <v>20</v>
       </c>
       <c r="L109" t="n">
         <v>306.6</v>
@@ -5838,7 +5860,7 @@
         <v>253</v>
       </c>
       <c r="K110" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L110" t="n">
         <v>306.8</v>
@@ -5889,7 +5911,7 @@
         <v>253</v>
       </c>
       <c r="K111" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L111" t="n">
         <v>307</v>
@@ -5940,7 +5962,7 @@
         <v>253</v>
       </c>
       <c r="K112" t="n">
-        <v>-12.5</v>
+        <v>20</v>
       </c>
       <c r="L112" t="n">
         <v>307.2</v>
@@ -5991,7 +6013,7 @@
         <v>253</v>
       </c>
       <c r="K113" t="n">
-        <v>-6.666666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L113" t="n">
         <v>307.4</v>
@@ -6042,7 +6064,7 @@
         <v>253</v>
       </c>
       <c r="K114" t="n">
-        <v>-14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L114" t="n">
         <v>307.3</v>
@@ -6093,7 +6115,7 @@
         <v>254</v>
       </c>
       <c r="K115" t="n">
-        <v>-20</v>
+        <v>50</v>
       </c>
       <c r="L115" t="n">
         <v>307.5</v>
@@ -6144,7 +6166,7 @@
         <v>255</v>
       </c>
       <c r="K116" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L116" t="n">
         <v>307.6</v>
@@ -6195,7 +6217,7 @@
         <v>255</v>
       </c>
       <c r="K117" t="n">
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="L117" t="n">
         <v>307.5</v>
@@ -6246,7 +6268,7 @@
         <v>256</v>
       </c>
       <c r="K118" t="n">
-        <v>-29.41176470588236</v>
+        <v>-100</v>
       </c>
       <c r="L118" t="n">
         <v>307.2</v>
@@ -6297,7 +6319,7 @@
         <v>261</v>
       </c>
       <c r="K119" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="L119" t="n">
         <v>307.4</v>
@@ -6348,7 +6370,7 @@
         <v>262</v>
       </c>
       <c r="K120" t="n">
-        <v>26.31578947368421</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L120" t="n">
         <v>307.7</v>
@@ -6399,7 +6421,7 @@
         <v>265</v>
       </c>
       <c r="K121" t="n">
-        <v>36.36363636363637</v>
+        <v>50</v>
       </c>
       <c r="L121" t="n">
         <v>308.3</v>
@@ -6450,7 +6472,7 @@
         <v>271</v>
       </c>
       <c r="K122" t="n">
-        <v>50</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L122" t="n">
         <v>309.5</v>
@@ -6501,7 +6523,7 @@
         <v>272</v>
       </c>
       <c r="K123" t="n">
-        <v>51.72413793103448</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="L123" t="n">
         <v>310.8</v>
@@ -6552,7 +6574,7 @@
         <v>275</v>
       </c>
       <c r="K124" t="n">
-        <v>51.72413793103448</v>
+        <v>80.95238095238095</v>
       </c>
       <c r="L124" t="n">
         <v>312.4</v>
@@ -6603,7 +6625,7 @@
         <v>275</v>
       </c>
       <c r="K125" t="n">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="L125" t="n">
         <v>314.1</v>
@@ -6654,7 +6676,7 @@
         <v>275</v>
       </c>
       <c r="K126" t="n">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="L126" t="n">
         <v>315.9</v>
@@ -6705,7 +6727,7 @@
         <v>275</v>
       </c>
       <c r="K127" t="n">
-        <v>73.91304347826086</v>
+        <v>100</v>
       </c>
       <c r="L127" t="n">
         <v>317.7</v>
@@ -6756,7 +6778,7 @@
         <v>276</v>
       </c>
       <c r="K128" t="n">
-        <v>65.21739130434783</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="L128" t="n">
         <v>319.5</v>
@@ -6807,7 +6829,7 @@
         <v>278</v>
       </c>
       <c r="K129" t="n">
-        <v>52</v>
+        <v>62.5</v>
       </c>
       <c r="L129" t="n">
         <v>320.6</v>
@@ -6858,7 +6880,7 @@
         <v>279</v>
       </c>
       <c r="K130" t="n">
-        <v>46.15384615384615</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L130" t="n">
         <v>321.5</v>
@@ -6909,7 +6931,7 @@
         <v>285</v>
       </c>
       <c r="K131" t="n">
-        <v>56.25</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L131" t="n">
         <v>322.7</v>
@@ -6960,7 +6982,7 @@
         <v>287</v>
       </c>
       <c r="K132" t="n">
-        <v>58.82352941176471</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L132" t="n">
         <v>323.5</v>
@@ -7011,7 +7033,7 @@
         <v>291</v>
       </c>
       <c r="K133" t="n">
-        <v>63.1578947368421</v>
+        <v>50</v>
       </c>
       <c r="L133" t="n">
         <v>324.6</v>
@@ -7062,7 +7084,7 @@
         <v>300</v>
       </c>
       <c r="K134" t="n">
-        <v>70.21276595744681</v>
+        <v>68</v>
       </c>
       <c r="L134" t="n">
         <v>326.3</v>
@@ -7113,7 +7135,7 @@
         <v>308</v>
       </c>
       <c r="K135" t="n">
-        <v>77.77777777777779</v>
+        <v>75.75757575757575</v>
       </c>
       <c r="L135" t="n">
         <v>328.8</v>
@@ -7164,7 +7186,7 @@
         <v>310</v>
       </c>
       <c r="K136" t="n">
-        <v>81.81818181818183</v>
+        <v>77.14285714285715</v>
       </c>
       <c r="L136" t="n">
         <v>331.5</v>
@@ -7215,7 +7237,7 @@
         <v>321</v>
       </c>
       <c r="K137" t="n">
-        <v>51.51515151515152</v>
+        <v>37.77777777777778</v>
       </c>
       <c r="L137" t="n">
         <v>333.1</v>
@@ -7266,7 +7288,7 @@
         <v>330</v>
       </c>
       <c r="K138" t="n">
-        <v>59.45945945945946</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L138" t="n">
         <v>335.7</v>
@@ -7317,7 +7339,7 @@
         <v>332</v>
       </c>
       <c r="K139" t="n">
-        <v>52.11267605633802</v>
+        <v>50.9433962264151</v>
       </c>
       <c r="L139" t="n">
         <v>338.3</v>
@@ -7368,7 +7390,7 @@
         <v>333</v>
       </c>
       <c r="K140" t="n">
-        <v>49.29577464788733</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L140" t="n">
         <v>340.9</v>
@@ -7419,7 +7441,7 @@
         <v>339</v>
       </c>
       <c r="K141" t="n">
-        <v>35.13513513513514</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L141" t="n">
         <v>342.3</v>
@@ -7470,7 +7492,7 @@
         <v>347</v>
       </c>
       <c r="K142" t="n">
-        <v>15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L142" t="n">
         <v>342.7</v>
@@ -7521,7 +7543,7 @@
         <v>350</v>
       </c>
       <c r="K143" t="n">
-        <v>17.94871794871795</v>
+        <v>-12</v>
       </c>
       <c r="L143" t="n">
         <v>343</v>
@@ -7572,7 +7594,7 @@
         <v>358</v>
       </c>
       <c r="K144" t="n">
-        <v>22.89156626506024</v>
+        <v>-12</v>
       </c>
       <c r="L144" t="n">
         <v>343.2</v>
@@ -7623,7 +7645,7 @@
         <v>370</v>
       </c>
       <c r="K145" t="n">
-        <v>32.63157894736842</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L145" t="n">
         <v>343.8</v>
@@ -7674,7 +7696,7 @@
         <v>381</v>
       </c>
       <c r="K146" t="n">
-        <v>39.62264150943396</v>
+        <v>43.33333333333334</v>
       </c>
       <c r="L146" t="n">
         <v>345.3</v>
@@ -7725,7 +7747,7 @@
         <v>387</v>
       </c>
       <c r="K147" t="n">
-        <v>32.14285714285715</v>
+        <v>19.29824561403509</v>
       </c>
       <c r="L147" t="n">
         <v>347.3</v>
@@ -7776,7 +7798,7 @@
         <v>387</v>
       </c>
       <c r="K148" t="n">
-        <v>33.33333333333333</v>
+        <v>23.63636363636364</v>
       </c>
       <c r="L148" t="n">
         <v>348.4</v>
@@ -7827,7 +7849,7 @@
         <v>387</v>
       </c>
       <c r="K149" t="n">
-        <v>35.77981651376147</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L149" t="n">
         <v>349.7</v>
@@ -7878,7 +7900,7 @@
         <v>387</v>
       </c>
       <c r="K150" t="n">
-        <v>37.03703703703704</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L150" t="n">
         <v>351.1</v>
@@ -7929,7 +7951,7 @@
         <v>401</v>
       </c>
       <c r="K151" t="n">
-        <v>41.37931034482759</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L151" t="n">
         <v>354.5</v>
@@ -7980,7 +8002,7 @@
         <v>401</v>
       </c>
       <c r="K152" t="n">
-        <v>40.35087719298245</v>
+        <v>76.47058823529412</v>
       </c>
       <c r="L152" t="n">
         <v>358.7</v>
@@ -8031,7 +8053,7 @@
         <v>401</v>
       </c>
       <c r="K153" t="n">
-        <v>38.18181818181819</v>
+        <v>72.09302325581395</v>
       </c>
       <c r="L153" t="n">
         <v>362.6</v>
@@ -8082,7 +8104,7 @@
         <v>411</v>
       </c>
       <c r="K154" t="n">
-        <v>20.72072072072072</v>
+        <v>21.95121951219512</v>
       </c>
       <c r="L154" t="n">
         <v>364.7</v>
@@ -8133,7 +8155,7 @@
         <v>416</v>
       </c>
       <c r="K155" t="n">
-        <v>18.51851851851852</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="L155" t="n">
         <v>366.1</v>
@@ -8184,7 +8206,7 @@
         <v>422</v>
       </c>
       <c r="K156" t="n">
-        <v>10.71428571428571</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="L156" t="n">
         <v>365.8</v>
@@ -8235,7 +8257,7 @@
         <v>426</v>
       </c>
       <c r="K157" t="n">
-        <v>25.71428571428571</v>
+        <v>17.94871794871795</v>
       </c>
       <c r="L157" t="n">
         <v>366.5</v>
@@ -8286,7 +8308,7 @@
         <v>430</v>
       </c>
       <c r="K158" t="n">
-        <v>14</v>
+        <v>6.976744186046512</v>
       </c>
       <c r="L158" t="n">
         <v>366.8</v>
@@ -8337,7 +8359,7 @@
         <v>432</v>
       </c>
       <c r="K159" t="n">
-        <v>18</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L159" t="n">
         <v>367.3</v>
@@ -8388,7 +8410,7 @@
         <v>434</v>
       </c>
       <c r="K160" t="n">
-        <v>16.83168316831683</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L160" t="n">
         <v>367.6</v>
@@ -8439,7 +8461,7 @@
         <v>437</v>
       </c>
       <c r="K161" t="n">
-        <v>20.40816326530612</v>
+        <v>-38.88888888888889</v>
       </c>
       <c r="L161" t="n">
         <v>366.2</v>
@@ -8490,7 +8512,7 @@
         <v>444</v>
       </c>
       <c r="K162" t="n">
-        <v>21.64948453608248</v>
+        <v>-48.83720930232558</v>
       </c>
       <c r="L162" t="n">
         <v>364.1</v>
@@ -8541,7 +8563,7 @@
         <v>444</v>
       </c>
       <c r="K163" t="n">
-        <v>19.14893617021277</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L163" t="n">
         <v>362</v>
@@ -8592,7 +8614,7 @@
         <v>444</v>
       </c>
       <c r="K164" t="n">
-        <v>11.62790697674419</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L164" t="n">
         <v>360.9</v>
@@ -8643,7 +8665,7 @@
         <v>448</v>
       </c>
       <c r="K165" t="n">
-        <v>2.564102564102564</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L165" t="n">
         <v>359.7</v>
@@ -8694,7 +8716,7 @@
         <v>456</v>
       </c>
       <c r="K166" t="n">
-        <v>-22.66666666666666</v>
+        <v>-60</v>
       </c>
       <c r="L166" t="n">
         <v>358.3</v>
@@ -8745,7 +8767,7 @@
         <v>468</v>
       </c>
       <c r="K167" t="n">
-        <v>1.234567901234568</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L167" t="n">
         <v>357.7</v>
@@ -8796,7 +8818,7 @@
         <v>478</v>
       </c>
       <c r="K168" t="n">
-        <v>-9.890109890109891</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L168" t="n">
         <v>356.5</v>
@@ -8847,7 +8869,7 @@
         <v>483</v>
       </c>
       <c r="K169" t="n">
-        <v>-4.166666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L169" t="n">
         <v>355.6</v>
@@ -8898,7 +8920,7 @@
         <v>491</v>
       </c>
       <c r="K170" t="n">
-        <v>-11.53846153846154</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L170" t="n">
         <v>354.1</v>
@@ -8949,7 +8971,7 @@
         <v>496</v>
       </c>
       <c r="K171" t="n">
-        <v>-22.10526315789474</v>
+        <v>0</v>
       </c>
       <c r="L171" t="n">
         <v>353.4</v>
@@ -9000,7 +9022,7 @@
         <v>498</v>
       </c>
       <c r="K172" t="n">
-        <v>-23.71134020618556</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L172" t="n">
         <v>353.2</v>
@@ -9051,7 +9073,7 @@
         <v>504</v>
       </c>
       <c r="K173" t="n">
-        <v>-28.15533980582524</v>
+        <v>-13.33333333333333</v>
       </c>
       <c r="L173" t="n">
         <v>352.4</v>
@@ -9102,7 +9124,7 @@
         <v>504</v>
       </c>
       <c r="K174" t="n">
-        <v>-20.43010752688172</v>
+        <v>-21.42857142857143</v>
       </c>
       <c r="L174" t="n">
         <v>351.6</v>
@@ -9153,7 +9175,7 @@
         <v>504</v>
       </c>
       <c r="K175" t="n">
-        <v>-27.27272727272727</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L175" t="n">
         <v>350.4</v>
@@ -9204,7 +9226,7 @@
         <v>505</v>
       </c>
       <c r="K176" t="n">
-        <v>-22.89156626506024</v>
+        <v>-45.94594594594595</v>
       </c>
       <c r="L176" t="n">
         <v>349.9</v>
@@ -9255,7 +9277,7 @@
         <v>513</v>
       </c>
       <c r="K177" t="n">
-        <v>-17.24137931034483</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="L177" t="n">
         <v>349</v>
@@ -9306,7 +9328,7 @@
         <v>516</v>
       </c>
       <c r="K178" t="n">
-        <v>-16.27906976744186</v>
+        <v>-21.21212121212121</v>
       </c>
       <c r="L178" t="n">
         <v>348.8</v>
@@ -9357,7 +9379,7 @@
         <v>519</v>
       </c>
       <c r="K179" t="n">
-        <v>-21.83908045977012</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L179" t="n">
         <v>347.8</v>
@@ -9408,7 +9430,7 @@
         <v>527</v>
       </c>
       <c r="K180" t="n">
-        <v>-9.67741935483871</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="L180" t="n">
         <v>348.4</v>
@@ -9459,7 +9481,7 @@
         <v>539</v>
       </c>
       <c r="K181" t="n">
-        <v>5.88235294117647</v>
+        <v>36.58536585365854</v>
       </c>
       <c r="L181" t="n">
         <v>349.7</v>
@@ -9510,7 +9532,7 @@
         <v>550</v>
       </c>
       <c r="K182" t="n">
-        <v>22.64150943396227</v>
+        <v>69.56521739130434</v>
       </c>
       <c r="L182" t="n">
         <v>352.3</v>
@@ -9561,7 +9583,7 @@
         <v>558</v>
       </c>
       <c r="K183" t="n">
-        <v>14.03508771929824</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L183" t="n">
         <v>354.7</v>
@@ -9612,7 +9634,7 @@
         <v>562</v>
       </c>
       <c r="K184" t="n">
-        <v>16.94915254237288</v>
+        <v>48.27586206896552</v>
       </c>
       <c r="L184" t="n">
         <v>357.5</v>
@@ -9663,7 +9685,7 @@
         <v>563</v>
       </c>
       <c r="K185" t="n">
-        <v>14.78260869565217</v>
+        <v>51.72413793103448</v>
       </c>
       <c r="L185" t="n">
         <v>360.4</v>
@@ -9714,7 +9736,7 @@
         <v>564</v>
       </c>
       <c r="K186" t="n">
-        <v>24.07407407407407</v>
+        <v>45.09803921568628</v>
       </c>
       <c r="L186" t="n">
         <v>363.5</v>
@@ -9765,7 +9787,7 @@
         <v>567</v>
       </c>
       <c r="K187" t="n">
-        <v>11.11111111111111</v>
+        <v>45.09803921568628</v>
       </c>
       <c r="L187" t="n">
         <v>365.5</v>
@@ -9816,7 +9838,7 @@
         <v>569</v>
       </c>
       <c r="K188" t="n">
-        <v>25.27472527472527</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="L188" t="n">
         <v>368</v>
@@ -9867,7 +9889,7 @@
         <v>569</v>
       </c>
       <c r="K189" t="n">
-        <v>20.93023255813954</v>
+        <v>47.61904761904761</v>
       </c>
       <c r="L189" t="n">
         <v>370.8</v>
@@ -9918,7 +9940,7 @@
         <v>581</v>
       </c>
       <c r="K190" t="n">
-        <v>15.55555555555556</v>
+        <v>-9.523809523809524</v>
       </c>
       <c r="L190" t="n">
         <v>371.6</v>
@@ -9969,7 +9991,7 @@
         <v>585</v>
       </c>
       <c r="K191" t="n">
-        <v>14.60674157303371</v>
+        <v>-31.42857142857143</v>
       </c>
       <c r="L191" t="n">
         <v>371.6</v>
@@ -10020,7 +10042,7 @@
         <v>587</v>
       </c>
       <c r="K192" t="n">
-        <v>14.60674157303371</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L192" t="n">
         <v>370.3</v>
@@ -10071,7 +10093,7 @@
         <v>593</v>
       </c>
       <c r="K193" t="n">
-        <v>28.08988764044944</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L193" t="n">
         <v>370.4</v>
@@ -10122,7 +10144,7 @@
         <v>599</v>
       </c>
       <c r="K194" t="n">
-        <v>20</v>
+        <v>-27.77777777777778</v>
       </c>
       <c r="L194" t="n">
         <v>369.5</v>
@@ -10173,7 +10195,7 @@
         <v>605</v>
       </c>
       <c r="K195" t="n">
-        <v>24.75247524752475</v>
+        <v>-12.19512195121951</v>
       </c>
       <c r="L195" t="n">
         <v>369.1</v>
@@ -10224,7 +10246,7 @@
         <v>613</v>
       </c>
       <c r="K196" t="n">
-        <v>31.48148148148148</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L196" t="n">
         <v>369.4</v>
@@ -10275,7 +10297,7 @@
         <v>615</v>
       </c>
       <c r="K197" t="n">
-        <v>27.45098039215686</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L197" t="n">
         <v>370.2</v>
@@ -10326,7 +10348,7 @@
         <v>619</v>
       </c>
       <c r="K198" t="n">
-        <v>26.21359223300971</v>
+        <v>4</v>
       </c>
       <c r="L198" t="n">
         <v>370.4</v>
@@ -10377,7 +10399,7 @@
         <v>621</v>
       </c>
       <c r="K199" t="n">
-        <v>27.45098039215686</v>
+        <v>30</v>
       </c>
       <c r="L199" t="n">
         <v>370.4</v>
@@ -10428,7 +10450,7 @@
         <v>625</v>
       </c>
       <c r="K200" t="n">
-        <v>24.48979591836735</v>
+        <v>30</v>
       </c>
       <c r="L200" t="n">
         <v>372</v>
@@ -10479,7 +10501,7 @@
         <v>629</v>
       </c>
       <c r="K201" t="n">
-        <v>17.77777777777778</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L201" t="n">
         <v>373.6</v>
@@ -10530,7 +10552,7 @@
         <v>633</v>
       </c>
       <c r="K202" t="n">
-        <v>10.8433734939759</v>
+        <v>40</v>
       </c>
       <c r="L202" t="n">
         <v>375.8</v>
@@ -10581,7 +10603,7 @@
         <v>635</v>
       </c>
       <c r="K203" t="n">
-        <v>19.48051948051948</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L203" t="n">
         <v>377.2</v>
@@ -10632,7 +10654,7 @@
         <v>639</v>
       </c>
       <c r="K204" t="n">
-        <v>19.48051948051948</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L204" t="n">
         <v>379.6</v>
@@ -10683,7 +10705,7 @@
         <v>648</v>
       </c>
       <c r="K205" t="n">
-        <v>5.88235294117647</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="L205" t="n">
         <v>380.5</v>
@@ -10734,7 +10756,7 @@
         <v>656</v>
       </c>
       <c r="K206" t="n">
-        <v>-4.347826086956522</v>
+        <v>-21.95121951219512</v>
       </c>
       <c r="L206" t="n">
         <v>379.8</v>
@@ -10785,7 +10807,7 @@
         <v>659</v>
       </c>
       <c r="K207" t="n">
-        <v>2.173913043478261</v>
+        <v>-5</v>
       </c>
       <c r="L207" t="n">
         <v>379.2</v>
@@ -10836,7 +10858,7 @@
         <v>661</v>
       </c>
       <c r="K208" t="n">
-        <v>2.173913043478261</v>
+        <v>5</v>
       </c>
       <c r="L208" t="n">
         <v>379.2</v>
@@ -10887,7 +10909,7 @@
         <v>661</v>
       </c>
       <c r="K209" t="n">
-        <v>2.173913043478261</v>
+        <v>-5.555555555555555</v>
       </c>
       <c r="L209" t="n">
         <v>379.4</v>
@@ -10938,7 +10960,7 @@
         <v>667</v>
       </c>
       <c r="K210" t="n">
-        <v>9.302325581395349</v>
+        <v>-31.57894736842105</v>
       </c>
       <c r="L210" t="n">
         <v>378.6</v>
@@ -10989,7 +11011,7 @@
         <v>672</v>
       </c>
       <c r="K211" t="n">
-        <v>10.3448275862069</v>
+        <v>-28.2051282051282</v>
       </c>
       <c r="L211" t="n">
         <v>377.9</v>
@@ -11040,7 +11062,7 @@
         <v>674</v>
       </c>
       <c r="K212" t="n">
-        <v>10.3448275862069</v>
+        <v>-28.2051282051282</v>
       </c>
       <c r="L212" t="n">
         <v>376.6</v>
@@ -11091,7 +11113,7 @@
         <v>675</v>
       </c>
       <c r="K213" t="n">
-        <v>2.439024390243902</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L213" t="n">
         <v>375.4</v>
@@ -11142,7 +11164,7 @@
         <v>675</v>
       </c>
       <c r="K214" t="n">
-        <v>10.52631578947368</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L214" t="n">
         <v>373.8</v>
@@ -11193,7 +11215,7 @@
         <v>677</v>
       </c>
       <c r="K215" t="n">
-        <v>5.555555555555555</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L215" t="n">
         <v>373.3</v>
@@ -11244,7 +11266,7 @@
         <v>681</v>
       </c>
       <c r="K216" t="n">
-        <v>-11.76470588235294</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L216" t="n">
         <v>373.2</v>
@@ -11295,7 +11317,7 @@
         <v>681</v>
       </c>
       <c r="K217" t="n">
-        <v>-15.15151515151515</v>
+        <v>-30</v>
       </c>
       <c r="L217" t="n">
         <v>372.8</v>
@@ -11346,7 +11368,7 @@
         <v>681</v>
       </c>
       <c r="K218" t="n">
-        <v>-9.67741935483871</v>
+        <v>-30</v>
       </c>
       <c r="L218" t="n">
         <v>372.2</v>
@@ -11397,7 +11419,7 @@
         <v>690</v>
       </c>
       <c r="K219" t="n">
-        <v>-18.84057971014493</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L219" t="n">
         <v>370.7</v>
@@ -11448,7 +11470,7 @@
         <v>695</v>
       </c>
       <c r="K220" t="n">
-        <v>-17.14285714285714</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L220" t="n">
         <v>370.3</v>
@@ -11499,7 +11521,7 @@
         <v>696</v>
       </c>
       <c r="K221" t="n">
-        <v>-25.37313432835821</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L221" t="n">
         <v>369.3</v>
@@ -11550,7 +11572,7 @@
         <v>704</v>
       </c>
       <c r="K222" t="n">
-        <v>-40.84507042253522</v>
+        <v>-51.72413793103448</v>
       </c>
       <c r="L222" t="n">
         <v>367.7</v>
@@ -11601,7 +11623,7 @@
         <v>708</v>
       </c>
       <c r="K223" t="n">
-        <v>-31.50684931506849</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L223" t="n">
         <v>366.6</v>
@@ -11652,7 +11674,7 @@
         <v>716</v>
       </c>
       <c r="K224" t="n">
-        <v>-24.67532467532467</v>
+        <v>-12.82051282051282</v>
       </c>
       <c r="L224" t="n">
         <v>366.3</v>
@@ -11703,7 +11725,7 @@
         <v>717</v>
       </c>
       <c r="K225" t="n">
-        <v>-15.94202898550724</v>
+        <v>-5.555555555555555</v>
       </c>
       <c r="L225" t="n">
         <v>365.7</v>
@@ -11754,7 +11776,7 @@
         <v>720</v>
       </c>
       <c r="K226" t="n">
-        <v>-9.375</v>
+        <v>-12.82051282051282</v>
       </c>
       <c r="L226" t="n">
         <v>365.2</v>
@@ -11805,7 +11827,7 @@
         <v>725</v>
       </c>
       <c r="K227" t="n">
-        <v>-21.21212121212121</v>
+        <v>-22.72727272727273</v>
       </c>
       <c r="L227" t="n">
         <v>364.2</v>
@@ -11856,7 +11878,7 @@
         <v>728</v>
       </c>
       <c r="K228" t="n">
-        <v>-19.40298507462687</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L228" t="n">
         <v>363.5</v>
@@ -11907,7 +11929,7 @@
         <v>728</v>
       </c>
       <c r="K229" t="n">
-        <v>-19.40298507462687</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L229" t="n">
         <v>363.7</v>
@@ -11958,7 +11980,7 @@
         <v>731</v>
       </c>
       <c r="K230" t="n">
-        <v>-15.625</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L230" t="n">
         <v>363.1</v>
@@ -12009,7 +12031,7 @@
         <v>736</v>
       </c>
       <c r="K231" t="n">
-        <v>-15.625</v>
+        <v>25</v>
       </c>
       <c r="L231" t="n">
         <v>363.1</v>
@@ -12060,7 +12082,7 @@
         <v>738</v>
       </c>
       <c r="K232" t="n">
-        <v>-15.625</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L232" t="n">
         <v>363.7</v>
@@ -12111,7 +12133,7 @@
         <v>746</v>
       </c>
       <c r="K233" t="n">
-        <v>-23.94366197183098</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L233" t="n">
         <v>363.1</v>
@@ -12162,7 +12184,7 @@
         <v>755</v>
       </c>
       <c r="K234" t="n">
-        <v>-10</v>
+        <v>-10.52631578947368</v>
       </c>
       <c r="L234" t="n">
         <v>362.6</v>
@@ -12213,7 +12235,7 @@
         <v>760</v>
       </c>
       <c r="K235" t="n">
-        <v>-18.07228915662651</v>
+        <v>-15</v>
       </c>
       <c r="L235" t="n">
         <v>361.7</v>
@@ -12264,7 +12286,7 @@
         <v>763</v>
       </c>
       <c r="K236" t="n">
-        <v>-9.75609756097561</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L236" t="n">
         <v>361.4</v>
@@ -12315,7 +12337,7 @@
         <v>765</v>
       </c>
       <c r="K237" t="n">
-        <v>-11.9047619047619</v>
+        <v>-8.108108108108109</v>
       </c>
       <c r="L237" t="n">
         <v>361.4</v>
@@ -12366,7 +12388,7 @@
         <v>766</v>
       </c>
       <c r="K238" t="n">
-        <v>-10.58823529411765</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L238" t="n">
         <v>361.2</v>
@@ -12417,7 +12439,7 @@
         <v>766</v>
       </c>
       <c r="K239" t="n">
-        <v>0</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="L239" t="n">
         <v>361</v>
@@ -12468,7 +12490,7 @@
         <v>772</v>
       </c>
       <c r="K240" t="n">
-        <v>-14.28571428571428</v>
+        <v>-27.77777777777778</v>
       </c>
       <c r="L240" t="n">
         <v>360.5</v>
@@ -12519,7 +12541,7 @@
         <v>773</v>
       </c>
       <c r="K241" t="n">
-        <v>-14.28571428571428</v>
+        <v>-25.71428571428571</v>
       </c>
       <c r="L241" t="n">
         <v>359.4</v>
@@ -12570,7 +12592,7 @@
         <v>773</v>
       </c>
       <c r="K242" t="n">
-        <v>-4.347826086956522</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L242" t="n">
         <v>358.5</v>
@@ -12621,7 +12643,7 @@
         <v>777</v>
       </c>
       <c r="K243" t="n">
-        <v>-15.94202898550724</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L243" t="n">
         <v>358</v>
@@ -12672,7 +12694,7 @@
         <v>786</v>
       </c>
       <c r="K244" t="n">
-        <v>-40</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L244" t="n">
         <v>355.7</v>
@@ -12723,7 +12745,7 @@
         <v>797</v>
       </c>
       <c r="K245" t="n">
-        <v>-20</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L245" t="n">
         <v>355</v>
@@ -12774,7 +12796,7 @@
         <v>803</v>
       </c>
       <c r="K246" t="n">
-        <v>-22.89156626506024</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L246" t="n">
         <v>353.4</v>
@@ -12825,7 +12847,7 @@
         <v>808</v>
       </c>
       <c r="K247" t="n">
-        <v>-22.89156626506024</v>
+        <v>-47.61904761904761</v>
       </c>
       <c r="L247" t="n">
         <v>351.5</v>
@@ -12876,7 +12898,7 @@
         <v>814</v>
       </c>
       <c r="K248" t="n">
-        <v>-18.6046511627907</v>
+        <v>-29.16666666666667</v>
       </c>
       <c r="L248" t="n">
         <v>350.1</v>
@@ -12927,7 +12949,7 @@
         <v>819</v>
       </c>
       <c r="K249" t="n">
-        <v>-23.07692307692308</v>
+        <v>-27.65957446808511</v>
       </c>
       <c r="L249" t="n">
         <v>348.2</v>
@@ -12978,7 +13000,7 @@
         <v>820</v>
       </c>
       <c r="K250" t="n">
-        <v>-21.34831460674157</v>
+        <v>-27.65957446808511</v>
       </c>
       <c r="L250" t="n">
         <v>346.8</v>
@@ -13029,7 +13051,7 @@
         <v>823</v>
       </c>
       <c r="K251" t="n">
-        <v>-24.13793103448276</v>
+        <v>-20</v>
       </c>
       <c r="L251" t="n">
         <v>345.8</v>
@@ -13080,7 +13102,7 @@
         <v>825</v>
       </c>
       <c r="K252" t="n">
-        <v>-19.54022988505747</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L252" t="n">
         <v>345</v>
@@ -13131,7 +13153,7 @@
         <v>825</v>
       </c>
       <c r="K253" t="n">
-        <v>-11.39240506329114</v>
+        <v>12.82051282051282</v>
       </c>
       <c r="L253" t="n">
         <v>344.6</v>
@@ -13182,7 +13204,7 @@
         <v>826</v>
       </c>
       <c r="K254" t="n">
-        <v>-26.76056338028169</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L254" t="n">
         <v>345</v>
@@ -13233,7 +13255,7 @@
         <v>831</v>
       </c>
       <c r="K255" t="n">
-        <v>-12.67605633802817</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L255" t="n">
         <v>344.8</v>
@@ -13284,7 +13306,7 @@
         <v>835</v>
       </c>
       <c r="K256" t="n">
-        <v>-11.11111111111111</v>
+        <v>48.14814814814815</v>
       </c>
       <c r="L256" t="n">
         <v>345.6</v>
@@ -13335,7 +13357,7 @@
         <v>840</v>
       </c>
       <c r="K257" t="n">
-        <v>-14.66666666666667</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L257" t="n">
         <v>346.4</v>
@@ -13386,7 +13408,7 @@
         <v>841</v>
       </c>
       <c r="K258" t="n">
-        <v>-14.66666666666667</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L258" t="n">
         <v>346.7</v>
@@ -13437,7 +13459,7 @@
         <v>841</v>
       </c>
       <c r="K259" t="n">
-        <v>-14.66666666666667</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L259" t="n">
         <v>347.5</v>
@@ -13488,7 +13510,7 @@
         <v>852</v>
       </c>
       <c r="K260" t="n">
-        <v>7.5</v>
+        <v>58.62068965517241</v>
       </c>
       <c r="L260" t="n">
         <v>349.5</v>
@@ -13539,7 +13561,7 @@
         <v>862</v>
       </c>
       <c r="K261" t="n">
-        <v>-3.370786516853932</v>
+        <v>13.51351351351351</v>
       </c>
       <c r="L261" t="n">
         <v>350.2</v>
@@ -13590,7 +13612,7 @@
         <v>867</v>
       </c>
       <c r="K262" t="n">
-        <v>2.127659574468085</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L262" t="n">
         <v>351.2</v>
@@ -13641,7 +13663,7 @@
         <v>867</v>
       </c>
       <c r="K263" t="n">
-        <v>6.666666666666667</v>
+        <v>26.82926829268293</v>
       </c>
       <c r="L263" t="n">
         <v>352.2</v>
@@ -13692,7 +13714,7 @@
         <v>867</v>
       </c>
       <c r="K264" t="n">
-        <v>18.51851851851852</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L264" t="n">
         <v>353.3</v>
@@ -13743,7 +13765,7 @@
         <v>867</v>
       </c>
       <c r="K265" t="n">
-        <v>5.714285714285714</v>
+        <v>6.25</v>
       </c>
       <c r="L265" t="n">
         <v>353.9</v>
@@ -13794,7 +13816,7 @@
         <v>868</v>
       </c>
       <c r="K266" t="n">
-        <v>13.84615384615385</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L266" t="n">
         <v>354</v>
@@ -13845,7 +13867,7 @@
         <v>874</v>
       </c>
       <c r="K267" t="n">
-        <v>30.3030303030303</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L267" t="n">
         <v>355.2</v>
@@ -13896,7 +13918,7 @@
         <v>878</v>
       </c>
       <c r="K268" t="n">
-        <v>28.125</v>
+        <v>40.54054054054054</v>
       </c>
       <c r="L268" t="n">
         <v>356.7</v>
@@ -13947,7 +13969,7 @@
         <v>881</v>
       </c>
       <c r="K269" t="n">
-        <v>41.93548387096774</v>
+        <v>24.13793103448276</v>
       </c>
       <c r="L269" t="n">
         <v>358.5</v>
@@ -13998,7 +14020,7 @@
         <v>885</v>
       </c>
       <c r="K270" t="n">
-        <v>47.69230769230769</v>
+        <v>91.30434782608695</v>
       </c>
       <c r="L270" t="n">
         <v>359.6</v>
@@ -14049,7 +14071,7 @@
         <v>885</v>
       </c>
       <c r="K271" t="n">
-        <v>45.16129032258064</v>
+        <v>88.88888888888889</v>
       </c>
       <c r="L271" t="n">
         <v>361.7</v>
@@ -14100,7 +14122,7 @@
         <v>885</v>
       </c>
       <c r="K272" t="n">
-        <v>43.33333333333334</v>
+        <v>88.88888888888889</v>
       </c>
       <c r="L272" t="n">
         <v>363.3</v>
@@ -14151,7 +14173,7 @@
         <v>893</v>
       </c>
       <c r="K273" t="n">
-        <v>26.47058823529412</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="L273" t="n">
         <v>364.1</v>
@@ -14202,7 +14224,7 @@
         <v>895</v>
       </c>
       <c r="K274" t="n">
-        <v>24.63768115942029</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L274" t="n">
         <v>364.7</v>
@@ -14253,7 +14275,7 @@
         <v>895</v>
       </c>
       <c r="K275" t="n">
-        <v>18.75</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L275" t="n">
         <v>365.3</v>
@@ -14304,7 +14326,7 @@
         <v>899</v>
       </c>
       <c r="K276" t="n">
-        <v>6.25</v>
+        <v>-12</v>
       </c>
       <c r="L276" t="n">
         <v>365.6</v>
@@ -14355,7 +14377,7 @@
         <v>901</v>
       </c>
       <c r="K277" t="n">
-        <v>18.0327868852459</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L277" t="n">
         <v>365.5</v>
@@ -14406,7 +14428,7 @@
         <v>903</v>
       </c>
       <c r="K278" t="n">
-        <v>12.90322580645161</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L278" t="n">
         <v>364.8</v>
@@ -14457,7 +14479,7 @@
         <v>904</v>
       </c>
       <c r="K279" t="n">
-        <v>11.11111111111111</v>
+        <v>-78.94736842105263</v>
       </c>
       <c r="L279" t="n">
         <v>363.7</v>
@@ -14508,7 +14530,7 @@
         <v>906</v>
       </c>
       <c r="K280" t="n">
-        <v>-11.11111111111111</v>
+        <v>-80.95238095238095</v>
       </c>
       <c r="L280" t="n">
         <v>362</v>
@@ -14559,7 +14581,7 @@
         <v>908</v>
       </c>
       <c r="K281" t="n">
-        <v>13.04347826086956</v>
+        <v>-65.21739130434783</v>
       </c>
       <c r="L281" t="n">
         <v>360.5</v>
@@ -14610,7 +14632,7 @@
         <v>910</v>
       </c>
       <c r="K282" t="n">
-        <v>-2.325581395348837</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L282" t="n">
         <v>358.8</v>
@@ -14661,7 +14683,7 @@
         <v>911</v>
       </c>
       <c r="K283" t="n">
-        <v>0</v>
+        <v>-37.5</v>
       </c>
       <c r="L283" t="n">
         <v>358</v>
@@ -14712,7 +14734,7 @@
         <v>919</v>
       </c>
       <c r="K284" t="n">
-        <v>-15.38461538461539</v>
+        <v>-58.33333333333334</v>
       </c>
       <c r="L284" t="n">
         <v>356.6</v>
@@ -14763,7 +14785,7 @@
         <v>921</v>
       </c>
       <c r="K285" t="n">
-        <v>-11.11111111111111</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L285" t="n">
         <v>355.4</v>
@@ -14814,7 +14836,7 @@
         <v>931</v>
       </c>
       <c r="K286" t="n">
-        <v>-23.80952380952381</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L286" t="n">
         <v>353.6</v>
@@ -14865,7 +14887,7 @@
         <v>938</v>
       </c>
       <c r="K287" t="n">
-        <v>-21.875</v>
+        <v>-31.42857142857143</v>
       </c>
       <c r="L287" t="n">
         <v>352.3</v>
@@ -14916,7 +14938,7 @@
         <v>944</v>
       </c>
       <c r="K288" t="n">
-        <v>-36.36363636363637</v>
+        <v>-40</v>
       </c>
       <c r="L288" t="n">
         <v>350.6</v>
@@ -14967,7 +14989,7 @@
         <v>944</v>
       </c>
       <c r="K289" t="n">
-        <v>-42.85714285714285</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L289" t="n">
         <v>349</v>
@@ -15018,7 +15040,7 @@
         <v>950</v>
       </c>
       <c r="K290" t="n">
-        <v>-38.46153846153847</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L290" t="n">
         <v>348.2</v>
@@ -15069,7 +15091,7 @@
         <v>959</v>
       </c>
       <c r="K291" t="n">
-        <v>-21.62162162162162</v>
+        <v>2.040816326530612</v>
       </c>
       <c r="L291" t="n">
         <v>348.1</v>
@@ -15120,7 +15142,7 @@
         <v>960</v>
       </c>
       <c r="K292" t="n">
-        <v>-22.66666666666666</v>
+        <v>-2.040816326530612</v>
       </c>
       <c r="L292" t="n">
         <v>348.1</v>
@@ -15171,7 +15193,7 @@
         <v>968</v>
       </c>
       <c r="K293" t="n">
-        <v>-22.66666666666666</v>
+        <v>-2.040816326530612</v>
       </c>
       <c r="L293" t="n">
         <v>347.2</v>
@@ -15222,7 +15244,7 @@
         <v>972</v>
       </c>
       <c r="K294" t="n">
-        <v>-14.28571428571428</v>
+        <v>1.96078431372549</v>
       </c>
       <c r="L294" t="n">
         <v>347.5</v>
@@ -15273,7 +15295,7 @@
         <v>973</v>
       </c>
       <c r="K295" t="n">
-        <v>-12.82051282051282</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L295" t="n">
         <v>347.7</v>
@@ -15324,7 +15346,7 @@
         <v>980</v>
       </c>
       <c r="K296" t="n">
-        <v>-16.04938271604938</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L296" t="n">
         <v>348.2</v>
@@ -15375,7 +15397,7 @@
         <v>980</v>
       </c>
       <c r="K297" t="n">
-        <v>-18.9873417721519</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L297" t="n">
         <v>348</v>
@@ -15426,7 +15448,7 @@
         <v>981</v>
       </c>
       <c r="K298" t="n">
-        <v>-17.94871794871795</v>
+        <v>8.108108108108109</v>
       </c>
       <c r="L298" t="n">
         <v>348.3</v>
@@ -15477,7 +15499,7 @@
         <v>981</v>
       </c>
       <c r="K299" t="n">
-        <v>-16.88311688311688</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L299" t="n">
         <v>348.6</v>
@@ -15528,7 +15550,7 @@
         <v>981</v>
       </c>
       <c r="K300" t="n">
-        <v>-14.66666666666667</v>
+        <v>-54.54545454545454</v>
       </c>
       <c r="L300" t="n">
         <v>348.3</v>
@@ -15579,7 +15601,7 @@
         <v>981</v>
       </c>
       <c r="K301" t="n">
-        <v>-17.80821917808219</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L301" t="n">
         <v>347.1</v>
@@ -15630,7 +15652,7 @@
         <v>983</v>
       </c>
       <c r="K302" t="n">
-        <v>-12.32876712328767</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L302" t="n">
         <v>346.2</v>
@@ -15681,7 +15703,7 @@
         <v>983</v>
       </c>
       <c r="K303" t="n">
-        <v>-13.88888888888889</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L303" t="n">
         <v>346.1</v>
@@ -15732,7 +15754,7 @@
         <v>984</v>
       </c>
       <c r="K304" t="n">
-        <v>-1.538461538461539</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L304" t="n">
         <v>345.7</v>
@@ -15783,7 +15805,7 @@
         <v>985</v>
       </c>
       <c r="K305" t="n">
-        <v>-6.25</v>
+        <v>20</v>
       </c>
       <c r="L305" t="n">
         <v>345.1</v>
@@ -15834,7 +15856,7 @@
         <v>989</v>
       </c>
       <c r="K306" t="n">
-        <v>17.24137931034483</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L306" t="n">
         <v>345.6</v>
@@ -15885,7 +15907,7 @@
         <v>999</v>
       </c>
       <c r="K307" t="n">
-        <v>21.31147540983606</v>
+        <v>88.88888888888889</v>
       </c>
       <c r="L307" t="n">
         <v>347.1</v>
@@ -15936,7 +15958,7 @@
         <v>1011</v>
       </c>
       <c r="K308" t="n">
-        <v>10.44776119402985</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L308" t="n">
         <v>347.5</v>
@@ -15987,7 +16009,7 @@
         <v>1012</v>
       </c>
       <c r="K309" t="n">
-        <v>11.76470588235294</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L309" t="n">
         <v>348</v>
@@ -16038,7 +16060,7 @@
         <v>1013</v>
       </c>
       <c r="K310" t="n">
-        <v>1.587301587301587</v>
+        <v>12.5</v>
       </c>
       <c r="L310" t="n">
         <v>348.4</v>
@@ -16089,7 +16111,7 @@
         <v>1014</v>
       </c>
       <c r="K311" t="n">
-        <v>-12.72727272727273</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="L311" t="n">
         <v>348.9</v>
@@ -16140,7 +16162,7 @@
         <v>1014</v>
       </c>
       <c r="K312" t="n">
-        <v>-11.11111111111111</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="L312" t="n">
         <v>349.2</v>
@@ -16191,7 +16213,7 @@
         <v>1014</v>
       </c>
       <c r="K313" t="n">
-        <v>4.347826086956522</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L313" t="n">
         <v>349.5</v>
@@ -16242,7 +16264,7 @@
         <v>1015</v>
       </c>
       <c r="K314" t="n">
-        <v>-2.325581395348837</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L314" t="n">
         <v>349.8</v>
@@ -16293,7 +16315,7 @@
         <v>1015</v>
       </c>
       <c r="K315" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L315" t="n">
         <v>350.2</v>
@@ -16344,7 +16366,7 @@
         <v>1015</v>
       </c>
       <c r="K316" t="n">
-        <v>14.28571428571428</v>
+        <v>-62.5</v>
       </c>
       <c r="L316" t="n">
         <v>350.2</v>
@@ -16395,7 +16417,7 @@
         <v>1015</v>
       </c>
       <c r="K317" t="n">
-        <v>14.28571428571428</v>
+        <v>50</v>
       </c>
       <c r="L317" t="n">
         <v>349.2</v>
@@ -16446,7 +16468,7 @@
         <v>1022</v>
       </c>
       <c r="K318" t="n">
-        <v>31.70731707317073</v>
+        <v>80</v>
       </c>
       <c r="L318" t="n">
         <v>350.1</v>
@@ -16497,7 +16519,7 @@
         <v>1023</v>
       </c>
       <c r="K319" t="n">
-        <v>28.57142857142857</v>
+        <v>80</v>
       </c>
       <c r="L319" t="n">
         <v>350.8</v>
@@ -16548,7 +16570,7 @@
         <v>1024</v>
       </c>
       <c r="K320" t="n">
-        <v>30.23255813953488</v>
+        <v>80</v>
       </c>
       <c r="L320" t="n">
         <v>351.7</v>
@@ -16599,7 +16621,7 @@
         <v>1029</v>
       </c>
       <c r="K321" t="n">
-        <v>16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L321" t="n">
         <v>352</v>
@@ -16650,7 +16672,7 @@
         <v>1029</v>
       </c>
       <c r="K322" t="n">
-        <v>13.04347826086956</v>
+        <v>20</v>
       </c>
       <c r="L322" t="n">
         <v>352.3</v>
@@ -16701,7 +16723,7 @@
         <v>1034</v>
       </c>
       <c r="K323" t="n">
-        <v>1.96078431372549</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L323" t="n">
         <v>352.1</v>
@@ -16752,7 +16774,7 @@
         <v>1035</v>
       </c>
       <c r="K324" t="n">
-        <v>1.96078431372549</v>
+        <v>-10</v>
       </c>
       <c r="L324" t="n">
         <v>351.9</v>
@@ -16803,7 +16825,7 @@
         <v>1038</v>
       </c>
       <c r="K325" t="n">
-        <v>9.433962264150944</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L325" t="n">
         <v>352</v>
@@ -16854,7 +16876,7 @@
         <v>1046</v>
       </c>
       <c r="K326" t="n">
-        <v>-12.28070175438596</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L326" t="n">
         <v>351.3</v>
@@ -16905,7 +16927,7 @@
         <v>1046</v>
       </c>
       <c r="K327" t="n">
-        <v>-36.17021276595745</v>
+        <v>-58.33333333333334</v>
       </c>
       <c r="L327" t="n">
         <v>350.6</v>
@@ -16956,7 +16978,7 @@
         <v>1046</v>
       </c>
       <c r="K328" t="n">
-        <v>-14.28571428571428</v>
+        <v>-56.52173913043478</v>
       </c>
       <c r="L328" t="n">
         <v>349.2</v>
@@ -17007,7 +17029,7 @@
         <v>1047</v>
       </c>
       <c r="K329" t="n">
-        <v>-14.28571428571428</v>
+        <v>-56.52173913043478</v>
       </c>
       <c r="L329" t="n">
         <v>348</v>
@@ -17058,7 +17080,7 @@
         <v>1049</v>
       </c>
       <c r="K330" t="n">
-        <v>-16.66666666666666</v>
+        <v>-50</v>
       </c>
       <c r="L330" t="n">
         <v>346.5</v>
@@ -17109,7 +17131,7 @@
         <v>1052</v>
       </c>
       <c r="K331" t="n">
-        <v>-10.52631578947368</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L331" t="n">
         <v>345.8</v>
@@ -17160,7 +17182,7 @@
         <v>1055</v>
       </c>
       <c r="K332" t="n">
-        <v>-2.439024390243902</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L332" t="n">
         <v>345.4</v>
@@ -17211,7 +17233,7 @@
         <v>1055</v>
       </c>
       <c r="K333" t="n">
-        <v>-2.439024390243902</v>
+        <v>0</v>
       </c>
       <c r="L333" t="n">
         <v>345.5</v>
@@ -17262,7 +17284,7 @@
         <v>1056</v>
       </c>
       <c r="K334" t="n">
-        <v>-2.439024390243902</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L334" t="n">
         <v>345.6</v>
@@ -17313,7 +17335,7 @@
         <v>1056</v>
       </c>
       <c r="K335" t="n">
-        <v>-2.439024390243902</v>
+        <v>60</v>
       </c>
       <c r="L335" t="n">
         <v>345.4</v>
@@ -17364,7 +17386,7 @@
         <v>1057</v>
       </c>
       <c r="K336" t="n">
-        <v>-4.761904761904762</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L336" t="n">
         <v>345.9</v>
@@ -17415,7 +17437,7 @@
         <v>1057</v>
       </c>
       <c r="K337" t="n">
-        <v>-4.761904761904762</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L337" t="n">
         <v>346.4</v>
@@ -17466,7 +17488,7 @@
         <v>1064</v>
       </c>
       <c r="K338" t="n">
-        <v>-38.09523809523809</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L338" t="n">
         <v>346.2</v>
@@ -17517,7 +17539,7 @@
         <v>1067</v>
       </c>
       <c r="K339" t="n">
-        <v>-40.90909090909091</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L339" t="n">
         <v>345.6</v>
@@ -17568,7 +17590,7 @@
         <v>1071</v>
       </c>
       <c r="K340" t="n">
-        <v>-48.93617021276596</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L340" t="n">
         <v>344.8</v>
@@ -17619,7 +17641,7 @@
         <v>1086</v>
       </c>
       <c r="K341" t="n">
-        <v>-5.263157894736842</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="L341" t="n">
         <v>345.2</v>
@@ -17670,7 +17692,7 @@
         <v>1090</v>
       </c>
       <c r="K342" t="n">
-        <v>1.639344262295082</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L342" t="n">
         <v>345.7</v>
@@ -17721,7 +17743,7 @@
         <v>1091</v>
       </c>
       <c r="K343" t="n">
-        <v>8.771929824561402</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="L343" t="n">
         <v>346.1</v>
@@ -17772,7 +17794,7 @@
         <v>1092</v>
       </c>
       <c r="K344" t="n">
-        <v>5.263157894736842</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="L344" t="n">
         <v>346.3</v>
@@ -17823,7 +17845,7 @@
         <v>1092</v>
       </c>
       <c r="K345" t="n">
-        <v>0</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="L345" t="n">
         <v>346.5</v>
@@ -17874,7 +17896,7 @@
         <v>1092</v>
       </c>
       <c r="K346" t="n">
-        <v>17.39130434782609</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="L346" t="n">
         <v>346.8</v>
@@ -17925,7 +17947,7 @@
         <v>1098</v>
       </c>
       <c r="K347" t="n">
-        <v>3.846153846153846</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="L347" t="n">
         <v>346.5</v>
@@ -17976,7 +17998,7 @@
         <v>1104</v>
       </c>
       <c r="K348" t="n">
-        <v>13.79310344827586</v>
+        <v>35.13513513513514</v>
       </c>
       <c r="L348" t="n">
         <v>347.5</v>
@@ -18027,7 +18049,7 @@
         <v>1110</v>
       </c>
       <c r="K349" t="n">
-        <v>1.587301587301587</v>
+        <v>28.2051282051282</v>
       </c>
       <c r="L349" t="n">
         <v>348.2</v>
@@ -18078,7 +18100,7 @@
         <v>1110</v>
       </c>
       <c r="K350" t="n">
-        <v>4.918032786885246</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L350" t="n">
         <v>349.3</v>
@@ -18129,7 +18151,7 @@
         <v>1110</v>
       </c>
       <c r="K351" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="L351" t="n">
         <v>348.9</v>
@@ -18180,7 +18202,7 @@
         <v>1110</v>
       </c>
       <c r="K352" t="n">
-        <v>-5.454545454545454</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L352" t="n">
         <v>348.1</v>
@@ -18231,7 +18253,7 @@
         <v>1112</v>
       </c>
       <c r="K353" t="n">
-        <v>-1.754385964912281</v>
+        <v>-20</v>
       </c>
       <c r="L353" t="n">
         <v>347.6</v>
@@ -18282,7 +18304,7 @@
         <v>1112</v>
       </c>
       <c r="K354" t="n">
-        <v>-3.571428571428571</v>
+        <v>-20</v>
       </c>
       <c r="L354" t="n">
         <v>347.2</v>
@@ -18333,7 +18355,7 @@
         <v>1113</v>
       </c>
       <c r="K355" t="n">
-        <v>-1.754385964912281</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L355" t="n">
         <v>346.9</v>
@@ -18384,7 +18406,7 @@
         <v>1117</v>
       </c>
       <c r="K356" t="n">
-        <v>6.666666666666667</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L356" t="n">
         <v>347</v>
@@ -18435,7 +18457,7 @@
         <v>1117</v>
       </c>
       <c r="K357" t="n">
-        <v>6.666666666666667</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L357" t="n">
         <v>347.7</v>
@@ -18486,7 +18508,7 @@
         <v>1125</v>
       </c>
       <c r="K358" t="n">
-        <v>31.14754098360656</v>
+        <v>100</v>
       </c>
       <c r="L358" t="n">
         <v>348.6</v>
@@ -18537,7 +18559,7 @@
         <v>1125</v>
       </c>
       <c r="K359" t="n">
-        <v>37.93103448275862</v>
+        <v>100</v>
       </c>
       <c r="L359" t="n">
         <v>350.1</v>
@@ -18588,7 +18610,7 @@
         <v>1131</v>
       </c>
       <c r="K360" t="n">
-        <v>33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L360" t="n">
         <v>351</v>
@@ -18639,7 +18661,7 @@
         <v>1135</v>
       </c>
       <c r="K361" t="n">
-        <v>18.36734693877551</v>
+        <v>52</v>
       </c>
       <c r="L361" t="n">
         <v>352.3</v>
@@ -18690,7 +18712,7 @@
         <v>1138</v>
       </c>
       <c r="K362" t="n">
-        <v>4.166666666666666</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="L362" t="n">
         <v>353.3</v>
@@ -18741,7 +18763,7 @@
         <v>1142</v>
       </c>
       <c r="K363" t="n">
-        <v>-1.96078431372549</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L363" t="n">
         <v>353.7</v>
@@ -18792,7 +18814,7 @@
         <v>1146</v>
       </c>
       <c r="K364" t="n">
-        <v>7.407407407407407</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="L364" t="n">
         <v>354.5</v>
@@ -18843,7 +18865,7 @@
         <v>1148</v>
       </c>
       <c r="K365" t="n">
-        <v>3.571428571428571</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="L365" t="n">
         <v>355</v>
@@ -18894,7 +18916,7 @@
         <v>1151</v>
       </c>
       <c r="K366" t="n">
-        <v>8.474576271186439</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="L366" t="n">
         <v>355.4</v>
@@ -18945,7 +18967,7 @@
         <v>1157</v>
       </c>
       <c r="K367" t="n">
-        <v>8.474576271186439</v>
+        <v>-31.25</v>
       </c>
       <c r="L367" t="n">
         <v>355.2</v>
@@ -18996,7 +19018,7 @@
         <v>1158</v>
       </c>
       <c r="K368" t="n">
-        <v>-3.703703703703703</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L368" t="n">
         <v>354.1</v>
@@ -19047,7 +19069,7 @@
         <v>1162</v>
       </c>
       <c r="K369" t="n">
-        <v>15.38461538461539</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L369" t="n">
         <v>353.4</v>
@@ -19098,7 +19120,7 @@
         <v>1163</v>
       </c>
       <c r="K370" t="n">
-        <v>16.9811320754717</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L370" t="n">
         <v>353.4</v>
@@ -19149,7 +19171,7 @@
         <v>1164</v>
       </c>
       <c r="K371" t="n">
-        <v>18.51851851851852</v>
+        <v>0</v>
       </c>
       <c r="L371" t="n">
         <v>353.1</v>
@@ -19200,7 +19222,7 @@
         <v>1165</v>
       </c>
       <c r="K372" t="n">
-        <v>16.36363636363636</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L372" t="n">
         <v>353</v>
@@ -19251,7 +19273,7 @@
         <v>1171</v>
       </c>
       <c r="K373" t="n">
-        <v>1.694915254237288</v>
+        <v>-28</v>
       </c>
       <c r="L373" t="n">
         <v>352.7</v>
@@ -19302,7 +19324,7 @@
         <v>1178</v>
       </c>
       <c r="K374" t="n">
-        <v>12.12121212121212</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L374" t="n">
         <v>352.7</v>
@@ -19353,7 +19375,7 @@
         <v>1180</v>
       </c>
       <c r="K375" t="n">
-        <v>7.462686567164178</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L375" t="n">
         <v>352.7</v>
@@ -19404,7 +19426,7 @@
         <v>1183</v>
       </c>
       <c r="K376" t="n">
-        <v>6.060606060606061</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L376" t="n">
         <v>352.7</v>
@@ -19455,7 +19477,7 @@
         <v>1183</v>
       </c>
       <c r="K377" t="n">
-        <v>6.060606060606061</v>
+        <v>28</v>
       </c>
       <c r="L377" t="n">
         <v>353.3</v>
@@ -19506,7 +19528,7 @@
         <v>1187</v>
       </c>
       <c r="K378" t="n">
-        <v>-12.90322580645161</v>
+        <v>-4</v>
       </c>
       <c r="L378" t="n">
         <v>353.6</v>
@@ -19557,7 +19579,7 @@
         <v>1196</v>
       </c>
       <c r="K379" t="n">
-        <v>1.408450704225352</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="L379" t="n">
         <v>354.4</v>
@@ -19608,7 +19630,7 @@
         <v>1197</v>
       </c>
       <c r="K380" t="n">
-        <v>9.090909090909092</v>
+        <v>15.15151515151515</v>
       </c>
       <c r="L380" t="n">
         <v>355</v>
@@ -19659,7 +19681,7 @@
         <v>1203</v>
       </c>
       <c r="K381" t="n">
-        <v>11.76470588235294</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="L381" t="n">
         <v>356.1</v>
@@ -19710,7 +19732,7 @@
         <v>1204</v>
       </c>
       <c r="K382" t="n">
-        <v>18.18181818181818</v>
+        <v>57.57575757575758</v>
       </c>
       <c r="L382" t="n">
         <v>357.4</v>
@@ -19761,7 +19783,7 @@
         <v>1206</v>
       </c>
       <c r="K383" t="n">
-        <v>28.125</v>
+        <v>50</v>
       </c>
       <c r="L383" t="n">
         <v>359.5</v>
@@ -19812,7 +19834,7 @@
         <v>1207</v>
       </c>
       <c r="K384" t="n">
-        <v>21.31147540983606</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L384" t="n">
         <v>360.8</v>
@@ -19863,7 +19885,7 @@
         <v>1207</v>
       </c>
       <c r="K385" t="n">
-        <v>25.42372881355932</v>
+        <v>50</v>
       </c>
       <c r="L385" t="n">
         <v>362.3</v>
@@ -19914,7 +19936,7 @@
         <v>1207</v>
       </c>
       <c r="K386" t="n">
-        <v>21.42857142857143</v>
+        <v>50</v>
       </c>
       <c r="L386" t="n">
         <v>363.5</v>
@@ -19965,7 +19987,7 @@
         <v>1207</v>
       </c>
       <c r="K387" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="L387" t="n">
         <v>364.7</v>
@@ -20016,7 +20038,7 @@
         <v>1211</v>
       </c>
       <c r="K388" t="n">
-        <v>43.39622641509434</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L388" t="n">
         <v>366.7</v>
@@ -20067,7 +20089,7 @@
         <v>1214</v>
       </c>
       <c r="K389" t="n">
-        <v>42.30769230769231</v>
+        <v>88.23529411764706</v>
       </c>
       <c r="L389" t="n">
         <v>368.1</v>
@@ -20118,7 +20140,7 @@
         <v>1219</v>
       </c>
       <c r="K390" t="n">
-        <v>46.42857142857143</v>
+        <v>87.5</v>
       </c>
       <c r="L390" t="n">
         <v>370.1</v>
@@ -20169,7 +20191,7 @@
         <v>1220</v>
       </c>
       <c r="K391" t="n">
-        <v>42.85714285714285</v>
+        <v>75</v>
       </c>
       <c r="L391" t="n">
         <v>371.4</v>
@@ -20220,7 +20242,7 @@
         <v>1221</v>
       </c>
       <c r="K392" t="n">
-        <v>46.42857142857143</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L392" t="n">
         <v>372.7</v>
@@ -20271,7 +20293,7 @@
         <v>1226</v>
       </c>
       <c r="K393" t="n">
-        <v>67.27272727272727</v>
+        <v>89.47368421052632</v>
       </c>
       <c r="L393" t="n">
         <v>374.3</v>
@@ -20322,7 +20344,7 @@
         <v>1232</v>
       </c>
       <c r="K394" t="n">
-        <v>44.44444444444444</v>
+        <v>44</v>
       </c>
       <c r="L394" t="n">
         <v>375.4</v>
@@ -20373,7 +20395,7 @@
         <v>1233</v>
       </c>
       <c r="K395" t="n">
-        <v>47.16981132075472</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L395" t="n">
         <v>376.4</v>
@@ -20424,7 +20446,7 @@
         <v>1250</v>
       </c>
       <c r="K396" t="n">
-        <v>7.462686567164178</v>
+        <v>-16.27906976744186</v>
       </c>
       <c r="L396" t="n">
         <v>375.7</v>
@@ -20475,7 +20497,7 @@
         <v>1253</v>
       </c>
       <c r="K397" t="n">
-        <v>11.42857142857143</v>
+        <v>-19.04761904761905</v>
       </c>
       <c r="L397" t="n">
         <v>375.3</v>
@@ -20526,7 +20548,7 @@
         <v>1253</v>
       </c>
       <c r="K398" t="n">
-        <v>18.18181818181818</v>
+        <v>-28.2051282051282</v>
       </c>
       <c r="L398" t="n">
         <v>374.5</v>
@@ -20577,7 +20599,7 @@
         <v>1257</v>
       </c>
       <c r="K399" t="n">
-        <v>-1.639344262295082</v>
+        <v>-52.63157894736842</v>
       </c>
       <c r="L399" t="n">
         <v>373</v>
@@ -20628,7 +20650,7 @@
         <v>1262</v>
       </c>
       <c r="K400" t="n">
-        <v>-7.692307692307693</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L400" t="n">
         <v>370.5</v>
@@ -20679,7 +20701,7 @@
         <v>1270</v>
       </c>
       <c r="K401" t="n">
-        <v>-4.477611940298507</v>
+        <v>-34.69387755102041</v>
       </c>
       <c r="L401" t="n">
         <v>368.9</v>
@@ -20730,7 +20752,7 @@
         <v>1281</v>
       </c>
       <c r="K402" t="n">
-        <v>9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L402" t="n">
         <v>368.3</v>
@@ -20781,7 +20803,7 @@
         <v>1285</v>
       </c>
       <c r="K403" t="n">
-        <v>1.265822784810127</v>
+        <v>-16.9811320754717</v>
       </c>
       <c r="L403" t="n">
         <v>366.8</v>
@@ -20832,7 +20854,7 @@
         <v>1285</v>
       </c>
       <c r="K404" t="n">
-        <v>2.564102564102564</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L404" t="n">
         <v>365.9</v>
@@ -20883,7 +20905,7 @@
         <v>1292</v>
       </c>
       <c r="K405" t="n">
-        <v>-5.88235294117647</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L405" t="n">
         <v>364.4</v>
@@ -20934,7 +20956,7 @@
         <v>1292</v>
       </c>
       <c r="K406" t="n">
-        <v>-5.88235294117647</v>
+        <v>-2.564102564102564</v>
       </c>
       <c r="L406" t="n">
         <v>364.6</v>
@@ -20985,7 +21007,7 @@
         <v>1293</v>
       </c>
       <c r="K407" t="n">
-        <v>-4.651162790697675</v>
+        <v>0</v>
       </c>
       <c r="L407" t="n">
         <v>364.6</v>
@@ -21036,7 +21058,7 @@
         <v>1294</v>
       </c>
       <c r="K408" t="n">
-        <v>-8.433734939759036</v>
+        <v>13.51351351351351</v>
       </c>
       <c r="L408" t="n">
         <v>364.7</v>
@@ -21087,7 +21109,7 @@
         <v>1294</v>
       </c>
       <c r="K409" t="n">
-        <v>-12.5</v>
+        <v>31.25</v>
       </c>
       <c r="L409" t="n">
         <v>365.2</v>
@@ -21138,7 +21160,7 @@
         <v>1295</v>
       </c>
       <c r="K410" t="n">
-        <v>-21.05263157894737</v>
+        <v>4</v>
       </c>
       <c r="L410" t="n">
         <v>366.1</v>
@@ -21189,7 +21211,7 @@
         <v>1298</v>
       </c>
       <c r="K411" t="n">
-        <v>-15.38461538461539</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L411" t="n">
         <v>366.5</v>
@@ -21240,7 +21262,7 @@
         <v>1303</v>
       </c>
       <c r="K412" t="n">
-        <v>-21.95121951219512</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L412" t="n">
         <v>365.3</v>
@@ -21291,7 +21313,7 @@
         <v>1305</v>
       </c>
       <c r="K413" t="n">
-        <v>-31.64556962025317</v>
+        <v>-50</v>
       </c>
       <c r="L413" t="n">
         <v>364.3</v>
@@ -21342,7 +21364,7 @@
         <v>1308</v>
       </c>
       <c r="K414" t="n">
-        <v>-21.05263157894737</v>
+        <v>0</v>
       </c>
       <c r="L414" t="n">
         <v>363.6</v>
@@ -21393,7 +21415,7 @@
         <v>1311</v>
       </c>
       <c r="K415" t="n">
-        <v>-23.07692307692308</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L415" t="n">
         <v>363.3</v>
@@ -21444,7 +21466,7 @@
         <v>1326</v>
       </c>
       <c r="K416" t="n">
-        <v>18.42105263157895</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L416" t="n">
         <v>364.5</v>
@@ -21495,7 +21517,7 @@
         <v>1330</v>
       </c>
       <c r="K417" t="n">
-        <v>9.090909090909092</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L417" t="n">
         <v>365.2</v>
@@ -21546,7 +21568,7 @@
         <v>1337</v>
       </c>
       <c r="K418" t="n">
-        <v>0</v>
+        <v>-2.325581395348837</v>
       </c>
       <c r="L418" t="n">
         <v>365.1</v>
@@ -21597,7 +21619,7 @@
         <v>1340</v>
       </c>
       <c r="K419" t="n">
-        <v>1.204819277108434</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L419" t="n">
         <v>364.7</v>
@@ -21648,7 +21670,7 @@
         <v>1343</v>
       </c>
       <c r="K420" t="n">
-        <v>11.11111111111111</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L420" t="n">
         <v>364.7</v>
@@ -21699,7 +21721,7 @@
         <v>1344</v>
       </c>
       <c r="K421" t="n">
-        <v>0</v>
+        <v>2.439024390243902</v>
       </c>
       <c r="L421" t="n">
         <v>364.3</v>
@@ -21750,7 +21772,7 @@
         <v>1347</v>
       </c>
       <c r="K422" t="n">
-        <v>-12.12121212121212</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L422" t="n">
         <v>364.7</v>
@@ -21801,7 +21823,7 @@
         <v>1350</v>
       </c>
       <c r="K423" t="n">
-        <v>-10.76923076923077</v>
+        <v>0</v>
       </c>
       <c r="L423" t="n">
         <v>365</v>
@@ -21852,7 +21874,7 @@
         <v>1354</v>
       </c>
       <c r="K424" t="n">
-        <v>-15.94202898550724</v>
+        <v>-2.325581395348837</v>
       </c>
       <c r="L424" t="n">
         <v>364.6</v>
@@ -21903,7 +21925,7 @@
         <v>1362</v>
       </c>
       <c r="K425" t="n">
-        <v>5.714285714285714</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L425" t="n">
         <v>365.3</v>
@@ -21954,7 +21976,7 @@
         <v>1364</v>
       </c>
       <c r="K426" t="n">
-        <v>2.777777777777778</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L426" t="n">
         <v>364.3</v>
@@ -22005,7 +22027,7 @@
         <v>1368</v>
       </c>
       <c r="K427" t="n">
-        <v>6.666666666666667</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L427" t="n">
         <v>364.1</v>
@@ -22056,7 +22078,7 @@
         <v>1374</v>
       </c>
       <c r="K428" t="n">
-        <v>-2.5</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L428" t="n">
         <v>364</v>
@@ -22107,7 +22129,7 @@
         <v>1382</v>
       </c>
       <c r="K429" t="n">
-        <v>-11.36363636363636</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L429" t="n">
         <v>363.4</v>
@@ -22158,7 +22180,7 @@
         <v>1383</v>
       </c>
       <c r="K430" t="n">
-        <v>-9.090909090909092</v>
+        <v>-17.94871794871795</v>
       </c>
       <c r="L430" t="n">
         <v>362.6</v>
@@ -22209,7 +22231,7 @@
         <v>1387</v>
       </c>
       <c r="K431" t="n">
-        <v>-7.865168539325842</v>
+        <v>-15</v>
       </c>
       <c r="L431" t="n">
         <v>362.3</v>
@@ -22260,7 +22282,7 @@
         <v>1390</v>
       </c>
       <c r="K432" t="n">
-        <v>1.149425287356322</v>
+        <v>0</v>
       </c>
       <c r="L432" t="n">
         <v>362</v>
@@ -22311,7 +22333,7 @@
         <v>1396</v>
       </c>
       <c r="K433" t="n">
-        <v>-3.296703296703297</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L433" t="n">
         <v>361.4</v>
@@ -22362,7 +22384,7 @@
         <v>1418</v>
       </c>
       <c r="K434" t="n">
-        <v>14.54545454545454</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L434" t="n">
         <v>363.4</v>
@@ -22413,7 +22435,7 @@
         <v>1420</v>
       </c>
       <c r="K435" t="n">
-        <v>15.59633027522936</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L435" t="n">
         <v>364.4</v>
@@ -22464,7 +22486,7 @@
         <v>1427</v>
       </c>
       <c r="K436" t="n">
-        <v>-4.95049504950495</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="L436" t="n">
         <v>364.9</v>
@@ -22515,7 +22537,7 @@
         <v>1429</v>
       </c>
       <c r="K437" t="n">
-        <v>-3.03030303030303</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L437" t="n">
         <v>364.8</v>
@@ -22566,7 +22588,7 @@
         <v>1439</v>
       </c>
       <c r="K438" t="n">
-        <v>13.72549019607843</v>
+        <v>40.35087719298245</v>
       </c>
       <c r="L438" t="n">
         <v>366.3</v>
@@ -22617,7 +22639,7 @@
         <v>1440</v>
       </c>
       <c r="K439" t="n">
-        <v>18</v>
+        <v>40.35087719298245</v>
       </c>
       <c r="L439" t="n">
         <v>368.7</v>

--- a/BackTest/2019-10-10 BackTest TRUE.xlsx
+++ b/BackTest/2019-10-10 BackTest TRUE.xlsx
@@ -1326,13 +1326,17 @@
         <v>317.55</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>314</v>
+      </c>
+      <c r="K27" t="n">
+        <v>314</v>
+      </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
@@ -1361,14 +1365,22 @@
         <v>317.7333333333333</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>311</v>
+      </c>
+      <c r="K28" t="n">
+        <v>314</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1396,14 +1408,22 @@
         <v>317.9666666666666</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>318</v>
+      </c>
+      <c r="K29" t="n">
+        <v>314</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1431,13 +1451,17 @@
         <v>318.1833333333333</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>319</v>
+      </c>
+      <c r="K30" t="n">
+        <v>319</v>
+      </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
@@ -1466,14 +1490,22 @@
         <v>318.4166666666667</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>320</v>
+      </c>
+      <c r="K31" t="n">
+        <v>319</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1507,8 +1539,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>319</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1956,17 +1994,13 @@
         <v>316.4333333333333</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>310</v>
-      </c>
-      <c r="K45" t="n">
-        <v>310</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
@@ -1995,22 +2029,14 @@
         <v>316.0333333333334</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>311</v>
-      </c>
-      <c r="K46" t="n">
-        <v>310</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2038,22 +2064,14 @@
         <v>315.7333333333333</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>310</v>
-      </c>
-      <c r="K47" t="n">
-        <v>310</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2081,22 +2099,14 @@
         <v>315.3666666666667</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>310</v>
-      </c>
-      <c r="K48" t="n">
-        <v>310</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2124,22 +2134,14 @@
         <v>315.0333333333334</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>311</v>
-      </c>
-      <c r="K49" t="n">
-        <v>310</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2167,22 +2169,14 @@
         <v>314.9</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>314</v>
-      </c>
-      <c r="K50" t="n">
-        <v>310</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2210,22 +2204,14 @@
         <v>314.85</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>316</v>
-      </c>
-      <c r="K51" t="n">
-        <v>310</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +2239,14 @@
         <v>314.75</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>311</v>
-      </c>
-      <c r="K52" t="n">
-        <v>310</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2296,22 +2274,14 @@
         <v>314.55</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>310</v>
-      </c>
-      <c r="K53" t="n">
-        <v>310</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2339,22 +2309,14 @@
         <v>314.35</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>305</v>
-      </c>
-      <c r="K54" t="n">
-        <v>310</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2382,22 +2344,14 @@
         <v>314.35</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>309</v>
-      </c>
-      <c r="K55" t="n">
-        <v>310</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2425,22 +2379,14 @@
         <v>314.15</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>312</v>
-      </c>
-      <c r="K56" t="n">
-        <v>310</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2468,22 +2414,14 @@
         <v>313.9833333333333</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>313</v>
-      </c>
-      <c r="K57" t="n">
-        <v>310</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2511,22 +2449,14 @@
         <v>313.8666666666667</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>315</v>
-      </c>
-      <c r="K58" t="n">
-        <v>310</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2554,22 +2484,14 @@
         <v>313.9166666666667</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>315</v>
-      </c>
-      <c r="K59" t="n">
-        <v>310</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2597,22 +2519,14 @@
         <v>313.9666666666666</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>315</v>
-      </c>
-      <c r="K60" t="n">
-        <v>310</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2640,22 +2554,14 @@
         <v>314.0666666666667</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>315</v>
-      </c>
-      <c r="K61" t="n">
-        <v>310</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2683,22 +2589,14 @@
         <v>314.05</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>314</v>
-      </c>
-      <c r="K62" t="n">
-        <v>310</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2726,22 +2624,14 @@
         <v>314.05</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>313</v>
-      </c>
-      <c r="K63" t="n">
-        <v>310</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2769,22 +2659,14 @@
         <v>314.1</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>315</v>
-      </c>
-      <c r="K64" t="n">
-        <v>310</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2812,22 +2694,14 @@
         <v>314.1333333333333</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>316</v>
-      </c>
-      <c r="K65" t="n">
-        <v>310</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2855,22 +2729,14 @@
         <v>313.9166666666667</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>317</v>
-      </c>
-      <c r="K66" t="n">
-        <v>310</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2898,22 +2764,14 @@
         <v>313.9333333333333</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>318</v>
-      </c>
-      <c r="K67" t="n">
-        <v>310</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2947,14 +2805,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>310</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2988,14 +2840,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>310</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3029,14 +2875,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>310</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3070,14 +2910,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>310</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3111,14 +2945,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>310</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3152,14 +2980,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>310</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3193,14 +3015,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>310</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3234,14 +3050,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>310</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3275,14 +3085,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>310</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3316,14 +3120,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>310</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3357,14 +3155,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>310</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3398,14 +3190,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>310</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3439,14 +3225,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>310</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3474,22 +3254,14 @@
         <v>313.8166666666667</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>311</v>
-      </c>
-      <c r="K81" t="n">
-        <v>310</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3517,22 +3289,14 @@
         <v>313.8833333333333</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>309</v>
-      </c>
-      <c r="K82" t="n">
-        <v>310</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3560,22 +3324,14 @@
         <v>313.7333333333333</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>310</v>
-      </c>
-      <c r="K83" t="n">
-        <v>310</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3603,22 +3359,14 @@
         <v>313.6833333333333</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>311</v>
-      </c>
-      <c r="K84" t="n">
-        <v>310</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3646,22 +3394,14 @@
         <v>313.6833333333333</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>310</v>
-      </c>
-      <c r="K85" t="n">
-        <v>310</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3689,22 +3429,14 @@
         <v>313.6833333333333</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>314</v>
-      </c>
-      <c r="K86" t="n">
-        <v>310</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3732,22 +3464,14 @@
         <v>313.7166666666666</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>313</v>
-      </c>
-      <c r="K87" t="n">
-        <v>310</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3775,22 +3499,14 @@
         <v>313.5833333333333</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>310</v>
-      </c>
-      <c r="K88" t="n">
-        <v>310</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3818,22 +3534,14 @@
         <v>313.4333333333333</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>310</v>
-      </c>
-      <c r="K89" t="n">
-        <v>310</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3861,22 +3569,14 @@
         <v>313.2333333333333</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>309</v>
-      </c>
-      <c r="K90" t="n">
-        <v>310</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3904,22 +3604,14 @@
         <v>313.0333333333334</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>308</v>
-      </c>
-      <c r="K91" t="n">
-        <v>310</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3947,22 +3639,14 @@
         <v>312.8833333333333</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>310</v>
-      </c>
-      <c r="K92" t="n">
-        <v>310</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3990,22 +3674,14 @@
         <v>312.8</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>309</v>
-      </c>
-      <c r="K93" t="n">
-        <v>310</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4033,22 +3709,14 @@
         <v>312.7333333333333</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>310</v>
-      </c>
-      <c r="K94" t="n">
-        <v>310</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4076,22 +3744,14 @@
         <v>312.65</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>310</v>
-      </c>
-      <c r="K95" t="n">
-        <v>310</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4119,22 +3779,14 @@
         <v>312.5666666666667</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>310</v>
-      </c>
-      <c r="K96" t="n">
-        <v>310</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4162,22 +3814,14 @@
         <v>312.5</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>310</v>
-      </c>
-      <c r="K97" t="n">
-        <v>310</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4205,22 +3849,14 @@
         <v>312.4166666666667</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>310</v>
-      </c>
-      <c r="K98" t="n">
-        <v>310</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4248,22 +3884,14 @@
         <v>312.3166666666667</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>309</v>
-      </c>
-      <c r="K99" t="n">
-        <v>310</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4291,22 +3919,14 @@
         <v>312.2</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>308</v>
-      </c>
-      <c r="K100" t="n">
-        <v>310</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4334,22 +3954,14 @@
         <v>312.1333333333333</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>306</v>
-      </c>
-      <c r="K101" t="n">
-        <v>310</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4377,22 +3989,14 @@
         <v>312</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>306</v>
-      </c>
-      <c r="K102" t="n">
-        <v>310</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4420,22 +4024,14 @@
         <v>311.9333333333333</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>306</v>
-      </c>
-      <c r="K103" t="n">
-        <v>310</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4463,22 +4059,14 @@
         <v>311.9</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>309</v>
-      </c>
-      <c r="K104" t="n">
-        <v>310</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4506,22 +4094,14 @@
         <v>311.8166666666667</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>306</v>
-      </c>
-      <c r="K105" t="n">
-        <v>310</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4549,22 +4129,14 @@
         <v>311.7333333333333</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>305</v>
-      </c>
-      <c r="K106" t="n">
-        <v>310</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4592,22 +4164,14 @@
         <v>311.6166666666667</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>307</v>
-      </c>
-      <c r="K107" t="n">
-        <v>310</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4635,22 +4199,14 @@
         <v>311.5833333333333</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>308</v>
-      </c>
-      <c r="K108" t="n">
-        <v>310</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4678,22 +4234,14 @@
         <v>311.5666666666667</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>308</v>
-      </c>
-      <c r="K109" t="n">
-        <v>310</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4721,22 +4269,14 @@
         <v>311.4666666666666</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>308</v>
-      </c>
-      <c r="K110" t="n">
-        <v>310</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4764,22 +4304,14 @@
         <v>311.3666666666667</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>308</v>
-      </c>
-      <c r="K111" t="n">
-        <v>310</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4807,22 +4339,14 @@
         <v>311.3166666666667</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>308</v>
-      </c>
-      <c r="K112" t="n">
-        <v>310</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4850,22 +4374,14 @@
         <v>311.3666666666667</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>308</v>
-      </c>
-      <c r="K113" t="n">
-        <v>310</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4893,22 +4409,14 @@
         <v>311.4166666666667</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>308</v>
-      </c>
-      <c r="K114" t="n">
-        <v>310</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4936,22 +4444,14 @@
         <v>311.3833333333333</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>307</v>
-      </c>
-      <c r="K115" t="n">
-        <v>310</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4979,22 +4479,14 @@
         <v>311.2833333333334</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>306</v>
-      </c>
-      <c r="K116" t="n">
-        <v>310</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5022,22 +4514,14 @@
         <v>311.15</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>306</v>
-      </c>
-      <c r="K117" t="n">
-        <v>310</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5065,22 +4549,14 @@
         <v>310.9666666666666</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>305</v>
-      </c>
-      <c r="K118" t="n">
-        <v>310</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5108,22 +4584,14 @@
         <v>310.8833333333333</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>308</v>
-      </c>
-      <c r="K119" t="n">
-        <v>310</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5151,22 +4619,14 @@
         <v>310.8166666666667</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>311</v>
-      </c>
-      <c r="K120" t="n">
-        <v>310</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5194,22 +4654,14 @@
         <v>310.8</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>314</v>
-      </c>
-      <c r="K121" t="n">
-        <v>310</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5237,22 +4689,14 @@
         <v>310.9</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>314</v>
-      </c>
-      <c r="K122" t="n">
-        <v>310</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5280,22 +4724,14 @@
         <v>311.0333333333334</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>320</v>
-      </c>
-      <c r="K123" t="n">
-        <v>310</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5323,22 +4759,14 @@
         <v>311.1666666666667</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>321</v>
-      </c>
-      <c r="K124" t="n">
-        <v>310</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5366,22 +4794,14 @@
         <v>311.2833333333334</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>324</v>
-      </c>
-      <c r="K125" t="n">
-        <v>310</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5409,22 +4829,14 @@
         <v>311.4</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>326</v>
-      </c>
-      <c r="K126" t="n">
-        <v>310</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5458,14 +4870,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>310</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5499,14 +4905,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>310</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5540,14 +4940,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>310</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5581,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>310</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5622,14 +5010,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>310</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5663,14 +5045,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>310</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5704,14 +5080,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>310</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5745,14 +5115,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>310</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5786,14 +5150,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>310</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5827,14 +5185,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>310</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5868,14 +5220,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>310</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5906,17 +5252,11 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>310</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5950,14 +5290,8 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>310</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5991,14 +5325,8 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>310</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -6032,14 +5360,8 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>310</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6073,14 +5395,8 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>310</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6111,19 +5427,13 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>310</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
-        <v>1.075645161290323</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -6152,7 +5462,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
@@ -6187,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
@@ -6292,7 +5602,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
@@ -6327,7 +5637,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
@@ -6397,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
@@ -6467,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
@@ -6537,7 +5847,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
@@ -6572,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
@@ -6607,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
@@ -6677,7 +5987,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
@@ -6712,7 +6022,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
@@ -6747,7 +6057,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
@@ -6817,7 +6127,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
@@ -6852,7 +6162,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
@@ -6887,7 +6197,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
@@ -6957,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
@@ -6992,7 +6302,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
@@ -14587,7 +13897,7 @@
         <v>0</v>
       </c>
       <c r="I385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
@@ -14622,7 +13932,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>

--- a/BackTest/2019-10-10 BackTest TRUE.xlsx
+++ b/BackTest/2019-10-10 BackTest TRUE.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>254940.2474</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>272273.2718</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>312</v>
@@ -523,9 +523,11 @@
         <v>243647.567728125</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>319</v>
+      </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
@@ -560,9 +562,11 @@
         <v>264356.0617871368</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>317</v>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
@@ -597,9 +601,11 @@
         <v>262557.3813871368</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>328</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
@@ -634,9 +640,11 @@
         <v>262557.3813871368</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>323</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
@@ -1226,9 +1234,11 @@
         <v>243668.4700604267</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>310</v>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
@@ -1263,9 +1273,11 @@
         <v>242172.4371604268</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>310</v>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1300,9 +1312,11 @@
         <v>239095.4852604268</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>307</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1337,9 +1351,11 @@
         <v>237980.7312604268</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>306</v>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
@@ -1374,9 +1390,11 @@
         <v>238963.0950604268</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>305</v>
+      </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
@@ -1411,9 +1429,11 @@
         <v>238763.0950604268</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>307</v>
+      </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
@@ -1559,9 +1579,11 @@
         <v>239141.4906604268</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>306</v>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1596,9 +1618,11 @@
         <v>239141.4906604268</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>308</v>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1633,9 +1657,11 @@
         <v>238641.4906604268</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>308</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1670,9 +1696,11 @@
         <v>238642.4906604268</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>307</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1707,9 +1735,11 @@
         <v>240812.8550604268</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>308</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1744,9 +1774,11 @@
         <v>258686.3249604268</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>313</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1781,9 +1813,11 @@
         <v>282065.4540604268</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>326</v>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1818,9 +1852,11 @@
         <v>282065.4540604268</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>334</v>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -1855,9 +1891,11 @@
         <v>277826.9927645688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>334</v>
+      </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1929,9 +1967,11 @@
         <v>246641.615537729</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>327</v>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -1966,9 +2006,11 @@
         <v>246640.993137729</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>336</v>
+      </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2003,9 +2045,11 @@
         <v>246004.993137729</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>334</v>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2040,9 +2084,11 @@
         <v>247553.2343251542</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>333</v>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -6517,9 +6563,11 @@
         <v>149560.5680167893</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>305</v>
+      </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
@@ -6554,9 +6602,11 @@
         <v>149676.4418167893</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>307</v>
+      </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
@@ -8441,7 +8491,7 @@
         <v>383973.0599192439</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8478,7 +8528,7 @@
         <v>383565.6479192438</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8515,7 +8565,7 @@
         <v>368854.3314192438</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8552,7 +8602,7 @@
         <v>354558.0167192438</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8589,7 +8639,7 @@
         <v>354558.0167192438</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8626,7 +8676,7 @@
         <v>354558.0167192438</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -9810,18 +9860,16 @@
         <v>393490.7288932966</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
@@ -9847,15 +9895,11 @@
         <v>426428.3630932966</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9884,15 +9928,11 @@
         <v>424666.0085932966</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9921,16 +9961,14 @@
         <v>424251.0085932966</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
       <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
@@ -9956,7 +9994,7 @@
         <v>425304.4824932966</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9989,7 +10027,7 @@
         <v>435855.8604650244</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10022,7 +10060,7 @@
         <v>494751.4812932966</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10055,7 +10093,7 @@
         <v>492547.0543932966</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10088,7 +10126,7 @@
         <v>495232.6289324719</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10121,7 +10159,7 @@
         <v>489189.6123324719</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10154,7 +10192,7 @@
         <v>482606.9004324719</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10187,7 +10225,7 @@
         <v>485289.9658324719</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10220,7 +10258,7 @@
         <v>490600.1682324719</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10253,7 +10291,7 @@
         <v>490600.1682324719</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10286,7 +10324,7 @@
         <v>487917.0805324719</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10319,7 +10357,7 @@
         <v>488683.6391324719</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10352,7 +10390,7 @@
         <v>486655.9745324719</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10385,7 +10423,7 @@
         <v>478290.5885324719</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10418,7 +10456,7 @@
         <v>478290.5885324719</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10484,7 +10522,7 @@
         <v>474339.9661918302</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10517,7 +10555,7 @@
         <v>474339.9661918302</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10550,7 +10588,7 @@
         <v>474339.9661918302</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10583,7 +10621,7 @@
         <v>437405.7107918302</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10616,7 +10654,7 @@
         <v>440324.7298918302</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10649,7 +10687,7 @@
         <v>419883.3736918302</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10682,7 +10720,7 @@
         <v>411493.6106918302</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10715,7 +10753,7 @@
         <v>413501.5509918302</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10748,7 +10786,7 @@
         <v>427699.4980210194</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10781,7 +10819,7 @@
         <v>427651.4980210194</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10814,7 +10852,7 @@
         <v>425138.3182210195</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10847,7 +10885,7 @@
         <v>414356.5646210195</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10880,7 +10918,7 @@
         <v>415496.6881210195</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10913,7 +10951,7 @@
         <v>415496.6881210195</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10946,7 +10984,7 @@
         <v>412782.6845210195</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10979,7 +11017,7 @@
         <v>412832.8182210195</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11045,7 +11083,7 @@
         <v>397482.7480210195</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11078,7 +11116,7 @@
         <v>397485.7480210195</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11144,7 +11182,7 @@
         <v>397002.3102210195</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11375,7 +11413,7 @@
         <v>377672.9787210195</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11408,7 +11446,7 @@
         <v>350049.0763210194</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11441,7 +11479,7 @@
         <v>358661.5125210194</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11474,7 +11512,7 @@
         <v>356112.3187210194</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11507,7 +11545,7 @@
         <v>348229.6843210194</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11540,7 +11578,7 @@
         <v>357467.6612210195</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11573,7 +11611,7 @@
         <v>354030.4898210195</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11606,7 +11644,7 @@
         <v>351691.4172210195</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11639,7 +11677,7 @@
         <v>358788.1828210194</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11672,7 +11710,7 @@
         <v>363652.9587210194</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11705,7 +11743,7 @@
         <v>363652.9587210194</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11738,7 +11776,7 @@
         <v>363640.5642210194</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11771,7 +11809,7 @@
         <v>384600.2034210194</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11804,7 +11842,7 @@
         <v>388261.6356210194</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11936,7 +11974,7 @@
         <v>386934.9832210194</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12431,7 +12469,7 @@
         <v>426327.9975769334</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12596,7 +12634,7 @@
         <v>423194.3397696911</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12629,7 +12667,7 @@
         <v>423820.1907696911</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12662,7 +12700,7 @@
         <v>418924.2489696911</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12695,7 +12733,7 @@
         <v>418929.6252696911</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12728,7 +12766,7 @@
         <v>405921.8853696911</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12761,7 +12799,7 @@
         <v>405951.8853696911</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12794,7 +12832,7 @@
         <v>398908.0486696911</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12827,7 +12865,7 @@
         <v>399373.8776696912</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12860,7 +12898,7 @@
         <v>396009.4058696912</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12893,7 +12931,7 @@
         <v>396009.4058696912</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12926,7 +12964,7 @@
         <v>396843.9476696912</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12959,7 +12997,7 @@
         <v>398589.1091696912</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12992,7 +13030,7 @@
         <v>398564.8922682827</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13025,7 +13063,7 @@
         <v>394075.7991682827</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13058,7 +13096,7 @@
         <v>394191.7991682827</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13091,7 +13129,7 @@
         <v>394192.7991682827</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13124,7 +13162,7 @@
         <v>391958.1665682827</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13157,7 +13195,7 @@
         <v>391958.1665682827</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13190,7 +13228,7 @@
         <v>389559.8944682827</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13223,7 +13261,7 @@
         <v>389559.8944682827</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13256,7 +13294,7 @@
         <v>389559.8944682827</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13289,7 +13327,7 @@
         <v>389559.8944682827</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13883,7 +13921,7 @@
         <v>399103.3058568938</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13916,7 +13954,7 @@
         <v>399546.4226568938</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -15896,7 +15934,7 @@
         <v>412200.6892978909</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15929,7 +15967,7 @@
         <v>421430.8153568937</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15962,7 +16000,7 @@
         <v>440347.9264568937</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15995,7 +16033,7 @@
         <v>444146.1850360718</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16028,7 +16066,7 @@
         <v>444121.4133360718</v>
       </c>
       <c r="H443" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16061,7 +16099,7 @@
         <v>444121.4133360718</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16094,7 +16132,7 @@
         <v>444121.4133360718</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16193,7 +16231,7 @@
         <v>451754.0899360717</v>
       </c>
       <c r="H448" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16226,7 +16264,7 @@
         <v>466950.5496360717</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16259,7 +16297,7 @@
         <v>466541.0599360717</v>
       </c>
       <c r="H450" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16292,7 +16330,7 @@
         <v>467665.4533360717</v>
       </c>
       <c r="H451" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16325,7 +16363,7 @@
         <v>472194.4367360718</v>
       </c>
       <c r="H452" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16358,7 +16396,7 @@
         <v>465096.4335360718</v>
       </c>
       <c r="H453" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16391,7 +16429,7 @@
         <v>465006.7589360718</v>
       </c>
       <c r="H454" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16424,7 +16462,7 @@
         <v>452765.8662360717</v>
       </c>
       <c r="H455" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16457,7 +16495,7 @@
         <v>454032.8693925935</v>
       </c>
       <c r="H456" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16490,7 +16528,7 @@
         <v>454032.8693925935</v>
       </c>
       <c r="H457" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16523,7 +16561,7 @@
         <v>445396.6059925935</v>
       </c>
       <c r="H458" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16556,7 +16594,7 @@
         <v>432630.1647925935</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16589,7 +16627,7 @@
         <v>435759.9374925935</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16622,7 +16660,7 @@
         <v>450168.6877925935</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16655,7 +16693,7 @@
         <v>444050.7067925935</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16688,7 +16726,7 @@
         <v>444050.7067925935</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16721,7 +16759,7 @@
         <v>443717.3395925935</v>
       </c>
       <c r="H464" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16754,7 +16792,7 @@
         <v>443717.3395925935</v>
       </c>
       <c r="H465" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16787,7 +16825,7 @@
         <v>448346.7057925935</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16820,7 +16858,7 @@
         <v>456356.7057925935</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16853,7 +16891,7 @@
         <v>456356.7057925935</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16886,7 +16924,7 @@
         <v>451230.9853925935</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16919,7 +16957,7 @@
         <v>452238.8437925935</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16952,7 +16990,7 @@
         <v>452004.6936925935</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16985,7 +17023,7 @@
         <v>448649.8329925935</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17018,7 +17056,7 @@
         <v>454660.5801005824</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17051,7 +17089,7 @@
         <v>448380.7413005824</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17084,7 +17122,7 @@
         <v>469980.1325005824</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17117,7 +17155,7 @@
         <v>453193.1827005824</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17491,6 +17529,6 @@
       <c r="M487" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-10 BackTest TRUE.xlsx
+++ b/BackTest/2019-10-10 BackTest TRUE.xlsx
@@ -451,7 +451,7 @@
         <v>254940.2474</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>272273.2718</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>312</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>243647.567728125</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>319</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>264356.0617871368</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>317</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>262557.3813871368</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>328</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +640,15 @@
         <v>262557.3813871368</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +677,15 @@
         <v>259866.5278871368</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +714,15 @@
         <v>258655.5131871368</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +751,15 @@
         <v>253225.5250871368</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -752,7 +792,11 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -785,7 +829,11 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -818,7 +866,11 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -851,7 +903,11 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,7 +940,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +977,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,7 +1014,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1051,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1088,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1125,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1162,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1199,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1236,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1273,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1310,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1347,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1384,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1421,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1458,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1495,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1532,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1569,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1606,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1643,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1680,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1717,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1754,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1787,15 @@
         <v>282065.4540604268</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1824,15 @@
         <v>282065.4540604268</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1861,15 @@
         <v>277826.9927645688</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1898,15 @@
         <v>244973.6212948718</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1935,15 @@
         <v>246641.615537729</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +1972,15 @@
         <v>246640.993137729</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +2009,15 @@
         <v>246004.993137729</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +2046,15 @@
         <v>247553.2343251542</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2083,15 @@
         <v>247226.7098576843</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2120,15 @@
         <v>247226.7098576843</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2157,15 @@
         <v>247166.3439576843</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2198,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2235,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2272,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2309,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2346,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2383,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2420,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2457,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2494,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2531,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2568,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2605,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2642,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2679,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2716,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2753,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2790,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2827,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2864,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2901,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2938,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2699,7 +2975,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2732,7 +3012,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +3049,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2798,7 +3086,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +3123,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2864,7 +3160,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,7 +3197,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +3234,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3271,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3308,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3345,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3062,7 +3382,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3095,7 +3419,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3128,7 +3456,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,7 +3493,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3194,7 +3530,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +3567,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3604,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3641,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3678,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3715,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3752,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3425,7 +3789,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +3826,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +3863,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3524,7 +3900,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3557,7 +3937,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3590,7 +3974,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3623,7 +4011,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3656,7 +4048,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3689,7 +4085,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3722,7 +4122,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3755,7 +4159,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3788,7 +4196,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3821,7 +4233,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3854,7 +4270,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3887,7 +4307,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3920,7 +4344,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3953,7 +4381,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3986,7 +4418,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4019,7 +4455,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4052,7 +4492,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4085,7 +4529,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4118,7 +4566,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4151,7 +4603,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4184,7 +4640,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4217,7 +4677,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4250,7 +4714,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4283,7 +4751,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4316,7 +4788,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4349,7 +4825,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4382,7 +4862,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4415,7 +4899,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +4936,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4481,7 +4973,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4514,7 +5010,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4547,7 +5047,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4580,7 +5084,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4613,7 +5121,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4646,7 +5158,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4679,7 +5195,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4712,7 +5232,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4745,7 +5269,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4778,7 +5306,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4811,7 +5343,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4844,7 +5380,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4877,7 +5417,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4910,7 +5454,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4943,7 +5491,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4976,7 +5528,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5009,7 +5565,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5042,7 +5602,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5075,7 +5639,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5108,7 +5676,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5141,7 +5713,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5174,7 +5750,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5207,7 +5787,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5240,7 +5824,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5273,7 +5861,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5306,7 +5898,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5339,7 +5935,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5372,7 +5972,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5401,15 +6005,15 @@
         <v>151606.1960167893</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>310</v>
-      </c>
-      <c r="J152" t="n">
-        <v>310</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5441,12 +6045,10 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>310</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L153" t="n">
@@ -5480,12 +6082,10 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>310</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L154" t="n">
@@ -5516,15 +6116,15 @@
         <v>151937.5185167893</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>310</v>
-      </c>
-      <c r="J155" t="n">
-        <v>310</v>
-      </c>
-      <c r="K155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5553,17 +6153,13 @@
         <v>151937.5185167893</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>310</v>
-      </c>
-      <c r="J156" t="n">
-        <v>310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L156" t="n">
@@ -5594,17 +6190,13 @@
         <v>151937.5185167893</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>310</v>
-      </c>
-      <c r="J157" t="n">
-        <v>310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L157" t="n">
@@ -5635,17 +6227,13 @@
         <v>151560.9534167893</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>310</v>
-      </c>
-      <c r="J158" t="n">
-        <v>310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L158" t="n">
@@ -5676,14 +6264,10 @@
         <v>149869.2599167893</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>308</v>
-      </c>
-      <c r="J159" t="n">
-        <v>310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5717,14 +6301,10 @@
         <v>149869.2599167893</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>306</v>
-      </c>
-      <c r="J160" t="n">
-        <v>310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5758,14 +6338,10 @@
         <v>149869.2599167893</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>306</v>
-      </c>
-      <c r="J161" t="n">
-        <v>310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5799,14 +6375,10 @@
         <v>149869.2599167893</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>306</v>
-      </c>
-      <c r="J162" t="n">
-        <v>310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5840,14 +6412,10 @@
         <v>149878.2599167893</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>306</v>
-      </c>
-      <c r="J163" t="n">
-        <v>310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5881,14 +6449,10 @@
         <v>149444.6942167893</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>309</v>
-      </c>
-      <c r="J164" t="n">
-        <v>310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5922,14 +6486,10 @@
         <v>149444.6942167893</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>305</v>
-      </c>
-      <c r="J165" t="n">
-        <v>310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5963,14 +6523,10 @@
         <v>149560.5680167893</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>305</v>
-      </c>
-      <c r="J166" t="n">
-        <v>310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6004,14 +6560,10 @@
         <v>149676.4418167893</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>307</v>
-      </c>
-      <c r="J167" t="n">
-        <v>310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6045,14 +6597,10 @@
         <v>149676.4418167893</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>308</v>
-      </c>
-      <c r="J168" t="n">
-        <v>310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6086,14 +6634,10 @@
         <v>149676.4418167893</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>308</v>
-      </c>
-      <c r="J169" t="n">
-        <v>310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6127,14 +6671,10 @@
         <v>149676.4418167893</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>308</v>
-      </c>
-      <c r="J170" t="n">
-        <v>310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6168,14 +6708,10 @@
         <v>149676.4418167893</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>308</v>
-      </c>
-      <c r="J171" t="n">
-        <v>310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6209,14 +6745,10 @@
         <v>149676.4418167893</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>308</v>
-      </c>
-      <c r="J172" t="n">
-        <v>310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6250,14 +6782,10 @@
         <v>149676.4418167893</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>308</v>
-      </c>
-      <c r="J173" t="n">
-        <v>310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6291,14 +6819,10 @@
         <v>149413.6295167893</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>308</v>
-      </c>
-      <c r="J174" t="n">
-        <v>310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6332,14 +6856,10 @@
         <v>149075.0146167893</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>307</v>
-      </c>
-      <c r="J175" t="n">
-        <v>310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6373,14 +6893,10 @@
         <v>149075.0146167893</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>306</v>
-      </c>
-      <c r="J176" t="n">
-        <v>310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6414,14 +6930,10 @@
         <v>148653.1799167893</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>306</v>
-      </c>
-      <c r="J177" t="n">
-        <v>310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6455,14 +6967,10 @@
         <v>156251.4683748538</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>305</v>
-      </c>
-      <c r="J178" t="n">
-        <v>310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6496,14 +7004,10 @@
         <v>158303.5715748538</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>310</v>
-      </c>
-      <c r="J179" t="n">
-        <v>310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6537,14 +7041,10 @@
         <v>158568.8667748538</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>311</v>
-      </c>
-      <c r="J180" t="n">
-        <v>310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6578,14 +7078,10 @@
         <v>172576.4804748538</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>314</v>
-      </c>
-      <c r="J181" t="n">
-        <v>310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6622,9 +7118,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>310</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6661,9 +7155,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>310</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6700,9 +7192,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>310</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6739,9 +7229,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>310</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6778,9 +7266,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>310</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6817,9 +7303,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>310</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6856,9 +7340,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>310</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6895,9 +7377,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>310</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6934,9 +7414,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>310</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6973,9 +7451,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>310</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7012,9 +7488,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>310</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7051,9 +7525,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>310</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7090,9 +7562,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>310</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7126,23 +7596,19 @@
         <v>298731.8552886825</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>310</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L195" t="n">
-        <v>1.127258064516129</v>
-      </c>
-      <c r="M195" t="n">
-        <v>1.119205298013245</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7167,11 +7633,15 @@
         <v>291950.2181886825</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7200,11 +7670,15 @@
         <v>295934.3014447297</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7233,11 +7707,15 @@
         <v>290270.5640447297</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7266,11 +7744,15 @@
         <v>274212.4503447298</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7299,11 +7781,15 @@
         <v>269870.2093447298</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7332,11 +7818,15 @@
         <v>263829.2493447298</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7365,11 +7855,15 @@
         <v>273955.1939447297</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7398,11 +7892,15 @@
         <v>275403.1825447297</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7431,11 +7929,15 @@
         <v>299678.1339559974</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7464,11 +7966,15 @@
         <v>371530.2381447298</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7497,11 +8003,15 @@
         <v>342006.2772468919</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7530,14 +8040,16 @@
         <v>342006.2772468919</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
@@ -7695,7 +8207,7 @@
         <v>391032.2431680243</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7728,7 +8240,7 @@
         <v>381673.0937680243</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7761,7 +8273,7 @@
         <v>393777.4712680243</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7794,7 +8306,7 @@
         <v>376038.5173192438</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7827,7 +8339,7 @@
         <v>385285.1171192438</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7860,7 +8372,7 @@
         <v>382740.3943192438</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7893,7 +8405,7 @@
         <v>383973.0599192439</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7926,7 +8438,7 @@
         <v>383565.6479192438</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7959,7 +8471,7 @@
         <v>368854.3314192438</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7992,7 +8504,7 @@
         <v>354558.0167192438</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8586,7 +9098,7 @@
         <v>337219.2492291054</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8619,7 +9131,7 @@
         <v>337229.2492291054</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8817,7 +9329,7 @@
         <v>397593.6041624388</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8850,7 +9362,7 @@
         <v>397656.7854624388</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8883,7 +9395,7 @@
         <v>397656.7854624388</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8916,7 +9428,7 @@
         <v>382851.9673624389</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9180,7 +9692,7 @@
         <v>424666.0085932966</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9312,7 +9824,7 @@
         <v>494751.4812932966</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9345,7 +9857,7 @@
         <v>492547.0543932966</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9378,7 +9890,7 @@
         <v>495232.6289324719</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9411,7 +9923,7 @@
         <v>489189.6123324719</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9444,7 +9956,7 @@
         <v>482606.9004324719</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9477,7 +9989,7 @@
         <v>485289.9658324719</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9510,7 +10022,7 @@
         <v>490600.1682324719</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9543,7 +10055,7 @@
         <v>490600.1682324719</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9576,7 +10088,7 @@
         <v>487917.0805324719</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9609,7 +10121,7 @@
         <v>488683.6391324719</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9642,7 +10154,7 @@
         <v>486655.9745324719</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9675,7 +10187,7 @@
         <v>478290.5885324719</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9708,7 +10220,7 @@
         <v>478290.5885324719</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9741,7 +10253,7 @@
         <v>479164.3578918302</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9774,7 +10286,7 @@
         <v>474339.9661918302</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9807,7 +10319,7 @@
         <v>474339.9661918302</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9840,7 +10352,7 @@
         <v>474339.9661918302</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9873,7 +10385,7 @@
         <v>437405.7107918302</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9906,7 +10418,7 @@
         <v>440324.7298918302</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9939,7 +10451,7 @@
         <v>419883.3736918302</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10104,7 +10616,7 @@
         <v>425138.3182210195</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -15549,7 +16061,7 @@
         <v>466541.0599360717</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15582,7 +16094,7 @@
         <v>467665.4533360717</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15615,7 +16127,7 @@
         <v>472194.4367360718</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15648,7 +16160,7 @@
         <v>465096.4335360718</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15681,7 +16193,7 @@
         <v>465006.7589360718</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15714,7 +16226,7 @@
         <v>452765.8662360717</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15747,7 +16259,7 @@
         <v>454032.8693925935</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15945,7 +16457,7 @@
         <v>444050.7067925935</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15978,7 +16490,7 @@
         <v>444050.7067925935</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16209,7 +16721,7 @@
         <v>452238.8437925935</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16242,7 +16754,7 @@
         <v>452004.6936925935</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16275,7 +16787,7 @@
         <v>448649.8329925935</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16308,7 +16820,7 @@
         <v>454660.5801005824</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16374,7 +16886,7 @@
         <v>469980.1325005824</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16407,7 +16919,7 @@
         <v>453193.1827005824</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16440,7 +16952,7 @@
         <v>453097.4221005825</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
